--- a/Brackets/Rififi #39 bracket.xlsx
+++ b/Brackets/Rififi #39 bracket.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugor\GitHub\MarioKartTopGenerator\Brackets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugor\Documents\GitHub\MarioKart\MarioKartTopGenerator\Brackets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C842118-0F77-4E67-9151-4EA52218BA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8EA8E2-869B-4E28-AC39-96F071A1DE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2F0D60C5-63AA-4767-A59B-0FBF4FA7B0CE}"/>
+    <workbookView xWindow="-28920" yWindow="5250" windowWidth="29040" windowHeight="16440" xr2:uid="{2F0D60C5-63AA-4767-A59B-0FBF4FA7B0CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Solo 16" sheetId="1" r:id="rId1"/>
@@ -1359,6 +1359,213 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1406,213 +1613,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2430,102 +2430,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB383F4-5B81-4835-B94B-188E90A9AF44}">
   <dimension ref="A1:BE147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="106" zoomScaleNormal="106" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="106" zoomScaleNormal="106" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.8" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="10.5546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="27.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="39.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="4.6640625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="30.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="4.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5546875" style="1" customWidth="1"/>
-    <col min="21" max="22" width="4.6640625" style="1" customWidth="1"/>
-    <col min="23" max="24" width="30.6640625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="4.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="10.5546875" style="1" customWidth="1"/>
-    <col min="27" max="28" width="4.6640625" style="1" customWidth="1"/>
-    <col min="29" max="30" width="30.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="4.6640625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="10.5546875" style="1" customWidth="1"/>
-    <col min="33" max="34" width="4.6640625" style="1" customWidth="1"/>
-    <col min="35" max="36" width="30.6640625" style="1" customWidth="1"/>
-    <col min="37" max="37" width="4.6640625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="10.5546875" style="1" customWidth="1"/>
-    <col min="39" max="39" width="13.33203125" style="1" customWidth="1"/>
-    <col min="40" max="41" width="4.6640625" style="1" customWidth="1"/>
-    <col min="42" max="43" width="30.6640625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="10.5546875" style="1" customWidth="1"/>
-    <col min="45" max="45" width="4.6640625" style="1" customWidth="1"/>
-    <col min="46" max="46" width="13.33203125" style="1" customWidth="1"/>
-    <col min="47" max="56" width="13.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="5.6640625" style="1" customWidth="1"/>
-    <col min="58" max="16384" width="11.44140625" style="1" hidden="1"/>
+    <col min="1" max="1" width="32.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="10.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="27.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="39.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="4.7109375" style="1" customWidth="1"/>
+    <col min="17" max="18" width="30.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="4.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" style="1" customWidth="1"/>
+    <col min="21" max="22" width="4.7109375" style="1" customWidth="1"/>
+    <col min="23" max="24" width="30.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="4.7109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="10.5703125" style="1" customWidth="1"/>
+    <col min="27" max="28" width="4.7109375" style="1" customWidth="1"/>
+    <col min="29" max="30" width="30.7109375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="4.7109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="10.5703125" style="1" customWidth="1"/>
+    <col min="33" max="34" width="4.7109375" style="1" customWidth="1"/>
+    <col min="35" max="36" width="30.7109375" style="1" customWidth="1"/>
+    <col min="37" max="37" width="4.7109375" style="1" customWidth="1"/>
+    <col min="38" max="38" width="10.5703125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="13.28515625" style="1" customWidth="1"/>
+    <col min="40" max="41" width="4.7109375" style="1" customWidth="1"/>
+    <col min="42" max="43" width="30.7109375" style="1" customWidth="1"/>
+    <col min="44" max="44" width="10.5703125" style="1" customWidth="1"/>
+    <col min="45" max="45" width="4.7109375" style="1" customWidth="1"/>
+    <col min="46" max="46" width="13.28515625" style="1" customWidth="1"/>
+    <col min="47" max="56" width="13.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="5.7109375" style="1" customWidth="1"/>
+    <col min="58" max="16384" width="11.42578125" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:57" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="156"/>
-      <c r="O1" s="156"/>
-      <c r="P1" s="156"/>
-      <c r="Q1" s="156"/>
-      <c r="R1" s="156"/>
-      <c r="S1" s="156"/>
-      <c r="T1" s="156"/>
-      <c r="U1" s="156"/>
-      <c r="V1" s="156"/>
-      <c r="W1" s="156"/>
-      <c r="X1" s="156"/>
-      <c r="Y1" s="156"/>
-      <c r="Z1" s="156"/>
-      <c r="AA1" s="156"/>
-      <c r="AB1" s="156"/>
-      <c r="AC1" s="156"/>
-      <c r="AD1" s="156"/>
-      <c r="AE1" s="156"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="156"/>
-      <c r="AH1" s="156"/>
-      <c r="AI1" s="156"/>
-      <c r="AJ1" s="156"/>
-      <c r="AK1" s="156"/>
-      <c r="AL1" s="156"/>
-      <c r="AM1" s="156"/>
-      <c r="AN1" s="156"/>
-      <c r="AO1" s="156"/>
-      <c r="AP1" s="156"/>
-      <c r="AQ1" s="156"/>
-      <c r="AR1" s="156"/>
-      <c r="AS1" s="156"/>
-      <c r="AT1" s="156"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="149"/>
+      <c r="AA1" s="149"/>
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="149"/>
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="149"/>
+      <c r="AH1" s="149"/>
+      <c r="AI1" s="149"/>
+      <c r="AJ1" s="149"/>
+      <c r="AK1" s="149"/>
+      <c r="AL1" s="149"/>
+      <c r="AM1" s="149"/>
+      <c r="AN1" s="149"/>
+      <c r="AO1" s="149"/>
+      <c r="AP1" s="149"/>
+      <c r="AQ1" s="149"/>
+      <c r="AR1" s="149"/>
+      <c r="AS1" s="149"/>
+      <c r="AT1" s="149"/>
       <c r="AU1" s="102"/>
       <c r="AV1" s="102"/>
       <c r="AW1" s="102"/>
@@ -2536,25 +2536,25 @@
       <c r="BB1" s="102"/>
       <c r="BC1" s="102"/>
       <c r="BD1" s="102"/>
-      <c r="BE1" s="161"/>
-    </row>
-    <row r="2" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE1" s="110"/>
+    </row>
+    <row r="2" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="106" t="s">
+      <c r="B2" s="113"/>
+      <c r="C2" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="168"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="176"/>
+      <c r="L2" s="117"/>
       <c r="M2" s="30"/>
       <c r="N2" s="30"/>
       <c r="O2" s="30"/>
@@ -2580,7 +2580,7 @@
       <c r="AI2" s="31"/>
       <c r="AJ2" s="31"/>
       <c r="AK2" s="31"/>
-      <c r="AL2" s="165"/>
+      <c r="AL2" s="114"/>
       <c r="AM2" s="31"/>
       <c r="AN2" s="31"/>
       <c r="AO2" s="31"/>
@@ -2599,23 +2599,23 @@
       <c r="BB2" s="59"/>
       <c r="BC2" s="59"/>
       <c r="BD2" s="59"/>
-      <c r="BE2" s="162"/>
-    </row>
-    <row r="3" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE2" s="111"/>
+    </row>
+    <row r="3" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="164"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="169"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="178"/>
+      <c r="L3" s="118"/>
       <c r="M3" s="79"/>
       <c r="N3" s="79"/>
       <c r="O3" s="79"/>
@@ -2641,7 +2641,7 @@
       <c r="AI3" s="59"/>
       <c r="AJ3" s="59"/>
       <c r="AK3" s="59"/>
-      <c r="AL3" s="166"/>
+      <c r="AL3" s="115"/>
       <c r="AM3" s="59"/>
       <c r="AN3" s="59"/>
       <c r="AO3" s="59"/>
@@ -2660,23 +2660,23 @@
       <c r="BB3" s="59"/>
       <c r="BC3" s="59"/>
       <c r="BD3" s="59"/>
-      <c r="BE3" s="162"/>
-    </row>
-    <row r="4" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE3" s="111"/>
+    </row>
+    <row r="4" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="164"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="169"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="178"/>
+      <c r="K4" s="178"/>
+      <c r="L4" s="118"/>
       <c r="M4" s="59"/>
       <c r="N4" s="59"/>
       <c r="O4" s="59"/>
@@ -2702,7 +2702,7 @@
       <c r="AI4" s="59"/>
       <c r="AJ4" s="59"/>
       <c r="AK4" s="59"/>
-      <c r="AL4" s="166"/>
+      <c r="AL4" s="115"/>
       <c r="AM4" s="59"/>
       <c r="AN4" s="59"/>
       <c r="AO4" s="59"/>
@@ -2721,61 +2721,61 @@
       <c r="BB4" s="59"/>
       <c r="BC4" s="59"/>
       <c r="BD4" s="59"/>
-      <c r="BE4" s="162"/>
-    </row>
-    <row r="5" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE4" s="111"/>
+    </row>
+    <row r="5" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="164"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="169"/>
-      <c r="M5" s="103" t="s">
+      <c r="B5" s="113"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
+      <c r="J5" s="178"/>
+      <c r="K5" s="178"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="103"/>
-      <c r="AG5" s="103"/>
-      <c r="AH5" s="103"/>
-      <c r="AI5" s="103"/>
-      <c r="AJ5" s="103"/>
-      <c r="AK5" s="103"/>
-      <c r="AL5" s="166"/>
-      <c r="AM5" s="172" t="s">
+      <c r="N5" s="172"/>
+      <c r="O5" s="172"/>
+      <c r="P5" s="172"/>
+      <c r="Q5" s="172"/>
+      <c r="R5" s="172"/>
+      <c r="S5" s="172"/>
+      <c r="T5" s="172"/>
+      <c r="U5" s="172"/>
+      <c r="V5" s="172"/>
+      <c r="W5" s="172"/>
+      <c r="X5" s="172"/>
+      <c r="Y5" s="172"/>
+      <c r="Z5" s="172"/>
+      <c r="AA5" s="172"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="172"/>
+      <c r="AD5" s="172"/>
+      <c r="AE5" s="172"/>
+      <c r="AF5" s="172"/>
+      <c r="AG5" s="172"/>
+      <c r="AH5" s="172"/>
+      <c r="AI5" s="172"/>
+      <c r="AJ5" s="172"/>
+      <c r="AK5" s="172"/>
+      <c r="AL5" s="115"/>
+      <c r="AM5" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="AN5" s="173"/>
-      <c r="AO5" s="173"/>
-      <c r="AP5" s="173"/>
-      <c r="AQ5" s="173"/>
-      <c r="AR5" s="173"/>
-      <c r="AS5" s="173"/>
-      <c r="AT5" s="174"/>
+      <c r="AN5" s="140"/>
+      <c r="AO5" s="140"/>
+      <c r="AP5" s="140"/>
+      <c r="AQ5" s="140"/>
+      <c r="AR5" s="140"/>
+      <c r="AS5" s="140"/>
+      <c r="AT5" s="141"/>
       <c r="AU5" s="59"/>
       <c r="AV5" s="59"/>
       <c r="AW5" s="59"/>
@@ -2786,57 +2786,57 @@
       <c r="BB5" s="59"/>
       <c r="BC5" s="59"/>
       <c r="BD5" s="59"/>
-      <c r="BE5" s="162"/>
-    </row>
-    <row r="6" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BE5" s="111"/>
+    </row>
+    <row r="6" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="164"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="169"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104"/>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="104"/>
-      <c r="AF6" s="104"/>
-      <c r="AG6" s="104"/>
-      <c r="AH6" s="104"/>
-      <c r="AI6" s="104"/>
-      <c r="AJ6" s="104"/>
-      <c r="AK6" s="104"/>
-      <c r="AL6" s="166"/>
-      <c r="AM6" s="175"/>
-      <c r="AN6" s="176"/>
-      <c r="AO6" s="176"/>
-      <c r="AP6" s="176"/>
-      <c r="AQ6" s="176"/>
-      <c r="AR6" s="176"/>
-      <c r="AS6" s="176"/>
-      <c r="AT6" s="177"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="180"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="180"/>
+      <c r="I6" s="180"/>
+      <c r="J6" s="180"/>
+      <c r="K6" s="180"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="173"/>
+      <c r="N6" s="173"/>
+      <c r="O6" s="173"/>
+      <c r="P6" s="173"/>
+      <c r="Q6" s="173"/>
+      <c r="R6" s="173"/>
+      <c r="S6" s="173"/>
+      <c r="T6" s="173"/>
+      <c r="U6" s="173"/>
+      <c r="V6" s="173"/>
+      <c r="W6" s="173"/>
+      <c r="X6" s="173"/>
+      <c r="Y6" s="173"/>
+      <c r="Z6" s="173"/>
+      <c r="AA6" s="173"/>
+      <c r="AB6" s="173"/>
+      <c r="AC6" s="173"/>
+      <c r="AD6" s="173"/>
+      <c r="AE6" s="173"/>
+      <c r="AF6" s="173"/>
+      <c r="AG6" s="173"/>
+      <c r="AH6" s="173"/>
+      <c r="AI6" s="173"/>
+      <c r="AJ6" s="173"/>
+      <c r="AK6" s="173"/>
+      <c r="AL6" s="115"/>
+      <c r="AM6" s="142"/>
+      <c r="AN6" s="143"/>
+      <c r="AO6" s="143"/>
+      <c r="AP6" s="143"/>
+      <c r="AQ6" s="143"/>
+      <c r="AR6" s="143"/>
+      <c r="AS6" s="143"/>
+      <c r="AT6" s="144"/>
       <c r="AU6" s="59"/>
       <c r="AV6" s="59"/>
       <c r="AW6" s="59"/>
@@ -2847,62 +2847,62 @@
       <c r="BB6" s="59"/>
       <c r="BC6" s="59"/>
       <c r="BD6" s="59"/>
-      <c r="BE6" s="162"/>
-    </row>
-    <row r="7" spans="1:57" ht="39.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BE6" s="111"/>
+    </row>
+    <row r="7" spans="1:57" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="164"/>
-      <c r="C7" s="181"/>
-      <c r="D7" s="182" t="s">
+      <c r="B7" s="113"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="183" t="str">
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="106" t="str">
         <f>"08/04/2025"</f>
         <v>08/04/2025</v>
       </c>
-      <c r="J7" s="184"/>
-      <c r="K7" s="185"/>
-      <c r="L7" s="169"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105"/>
-      <c r="O7" s="105"/>
-      <c r="P7" s="105"/>
-      <c r="Q7" s="105"/>
-      <c r="R7" s="105"/>
-      <c r="S7" s="105"/>
-      <c r="T7" s="105"/>
-      <c r="U7" s="105"/>
-      <c r="V7" s="105"/>
-      <c r="W7" s="105"/>
-      <c r="X7" s="105"/>
-      <c r="Y7" s="105"/>
-      <c r="Z7" s="105"/>
-      <c r="AA7" s="105"/>
-      <c r="AB7" s="105"/>
-      <c r="AC7" s="105"/>
-      <c r="AD7" s="105"/>
-      <c r="AE7" s="105"/>
-      <c r="AF7" s="105"/>
-      <c r="AG7" s="105"/>
-      <c r="AH7" s="105"/>
-      <c r="AI7" s="105"/>
-      <c r="AJ7" s="105"/>
-      <c r="AK7" s="105"/>
-      <c r="AL7" s="166"/>
-      <c r="AM7" s="178"/>
-      <c r="AN7" s="179"/>
-      <c r="AO7" s="179"/>
-      <c r="AP7" s="179"/>
-      <c r="AQ7" s="179"/>
-      <c r="AR7" s="179"/>
-      <c r="AS7" s="179"/>
-      <c r="AT7" s="180"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="118"/>
+      <c r="M7" s="174"/>
+      <c r="N7" s="174"/>
+      <c r="O7" s="174"/>
+      <c r="P7" s="174"/>
+      <c r="Q7" s="174"/>
+      <c r="R7" s="174"/>
+      <c r="S7" s="174"/>
+      <c r="T7" s="174"/>
+      <c r="U7" s="174"/>
+      <c r="V7" s="174"/>
+      <c r="W7" s="174"/>
+      <c r="X7" s="174"/>
+      <c r="Y7" s="174"/>
+      <c r="Z7" s="174"/>
+      <c r="AA7" s="174"/>
+      <c r="AB7" s="174"/>
+      <c r="AC7" s="174"/>
+      <c r="AD7" s="174"/>
+      <c r="AE7" s="174"/>
+      <c r="AF7" s="174"/>
+      <c r="AG7" s="174"/>
+      <c r="AH7" s="174"/>
+      <c r="AI7" s="174"/>
+      <c r="AJ7" s="174"/>
+      <c r="AK7" s="174"/>
+      <c r="AL7" s="115"/>
+      <c r="AM7" s="145"/>
+      <c r="AN7" s="146"/>
+      <c r="AO7" s="146"/>
+      <c r="AP7" s="146"/>
+      <c r="AQ7" s="146"/>
+      <c r="AR7" s="146"/>
+      <c r="AS7" s="146"/>
+      <c r="AT7" s="147"/>
       <c r="AU7" s="59"/>
       <c r="AV7" s="59"/>
       <c r="AW7" s="59"/>
@@ -2913,23 +2913,23 @@
       <c r="BB7" s="59"/>
       <c r="BC7" s="59"/>
       <c r="BD7" s="59"/>
-      <c r="BE7" s="162"/>
-    </row>
-    <row r="8" spans="1:57" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="BE7" s="111"/>
+    </row>
+    <row r="8" spans="1:57" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="164"/>
-      <c r="C8" s="186"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="187"/>
-      <c r="H8" s="187"/>
-      <c r="I8" s="187"/>
-      <c r="J8" s="187"/>
-      <c r="K8" s="187"/>
-      <c r="L8" s="169"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="118"/>
       <c r="M8" s="59"/>
       <c r="N8" s="59"/>
       <c r="O8" s="59"/>
@@ -2954,7 +2954,7 @@
       <c r="AI8" s="59"/>
       <c r="AJ8" s="59"/>
       <c r="AK8" s="59"/>
-      <c r="AL8" s="166"/>
+      <c r="AL8" s="115"/>
       <c r="AM8" s="59"/>
       <c r="AN8" s="59"/>
       <c r="AO8" s="59"/>
@@ -2973,13 +2973,13 @@
       <c r="BB8" s="59"/>
       <c r="BC8" s="59"/>
       <c r="BD8" s="59"/>
-      <c r="BE8" s="162"/>
-    </row>
-    <row r="9" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BE8" s="111"/>
+    </row>
+    <row r="9" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="164"/>
+      <c r="B9" s="113"/>
       <c r="C9" s="34"/>
       <c r="D9" s="188"/>
       <c r="E9" s="188"/>
@@ -2989,7 +2989,7 @@
       <c r="I9" s="188"/>
       <c r="J9" s="188"/>
       <c r="K9" s="59"/>
-      <c r="L9" s="169"/>
+      <c r="L9" s="118"/>
       <c r="M9" s="59"/>
       <c r="N9" s="59"/>
       <c r="O9" s="59"/>
@@ -3015,7 +3015,7 @@
       <c r="AI9" s="59"/>
       <c r="AJ9" s="59"/>
       <c r="AK9" s="59"/>
-      <c r="AL9" s="166"/>
+      <c r="AL9" s="115"/>
       <c r="AM9" s="59"/>
       <c r="AN9" s="59"/>
       <c r="AO9" s="59"/>
@@ -3034,13 +3034,13 @@
       <c r="BB9" s="59"/>
       <c r="BC9" s="59"/>
       <c r="BD9" s="59"/>
-      <c r="BE9" s="162"/>
-    </row>
-    <row r="10" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE9" s="111"/>
+    </row>
+    <row r="10" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="164"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="34"/>
       <c r="D10" s="59"/>
       <c r="E10" s="60"/>
@@ -3050,7 +3050,7 @@
       <c r="I10" s="59"/>
       <c r="J10" s="59"/>
       <c r="K10" s="59"/>
-      <c r="L10" s="169"/>
+      <c r="L10" s="118"/>
       <c r="M10" s="59"/>
       <c r="N10" s="59"/>
       <c r="O10" s="59"/>
@@ -3076,7 +3076,7 @@
       <c r="AI10" s="59"/>
       <c r="AJ10" s="59"/>
       <c r="AK10" s="59"/>
-      <c r="AL10" s="166"/>
+      <c r="AL10" s="115"/>
       <c r="AM10" s="59"/>
       <c r="AN10" s="59"/>
       <c r="AO10" s="59"/>
@@ -3095,13 +3095,13 @@
       <c r="BB10" s="59"/>
       <c r="BC10" s="59"/>
       <c r="BD10" s="59"/>
-      <c r="BE10" s="162"/>
-    </row>
-    <row r="11" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE10" s="111"/>
+    </row>
+    <row r="11" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="164"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="34"/>
       <c r="D11" s="59"/>
       <c r="E11" s="60"/>
@@ -3111,62 +3111,62 @@
       <c r="I11" s="59"/>
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
-      <c r="L11" s="169"/>
-      <c r="M11" s="120" t="s">
+      <c r="L11" s="118"/>
+      <c r="M11" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="120"/>
-      <c r="O11" s="120"/>
-      <c r="P11" s="120"/>
-      <c r="Q11" s="120"/>
-      <c r="R11" s="120"/>
-      <c r="S11" s="121"/>
+      <c r="N11" s="132"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="132"/>
+      <c r="Q11" s="132"/>
+      <c r="R11" s="132"/>
+      <c r="S11" s="158"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="119" t="s">
+      <c r="U11" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="V11" s="120"/>
-      <c r="W11" s="120"/>
-      <c r="X11" s="120"/>
-      <c r="Y11" s="121"/>
+      <c r="V11" s="132"/>
+      <c r="W11" s="132"/>
+      <c r="X11" s="132"/>
+      <c r="Y11" s="158"/>
       <c r="Z11" s="59"/>
-      <c r="AA11" s="119" t="s">
+      <c r="AA11" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="AB11" s="120"/>
-      <c r="AC11" s="120"/>
-      <c r="AD11" s="120"/>
-      <c r="AE11" s="121"/>
+      <c r="AB11" s="132"/>
+      <c r="AC11" s="132"/>
+      <c r="AD11" s="132"/>
+      <c r="AE11" s="158"/>
       <c r="AF11" s="59"/>
-      <c r="AG11" s="119" t="s">
+      <c r="AG11" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="AH11" s="120"/>
-      <c r="AI11" s="120"/>
-      <c r="AJ11" s="120"/>
-      <c r="AK11" s="120"/>
-      <c r="AL11" s="166"/>
+      <c r="AH11" s="132"/>
+      <c r="AI11" s="132"/>
+      <c r="AJ11" s="132"/>
+      <c r="AK11" s="132"/>
+      <c r="AL11" s="115"/>
       <c r="AM11" s="59"/>
-      <c r="AN11" s="119" t="s">
+      <c r="AN11" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="AO11" s="120"/>
-      <c r="AP11" s="120"/>
-      <c r="AQ11" s="120"/>
-      <c r="AR11" s="120"/>
-      <c r="AS11" s="121"/>
+      <c r="AO11" s="132"/>
+      <c r="AP11" s="132"/>
+      <c r="AQ11" s="132"/>
+      <c r="AR11" s="132"/>
+      <c r="AS11" s="158"/>
       <c r="AT11" s="33"/>
       <c r="BA11" s="59"/>
       <c r="BB11" s="59"/>
       <c r="BC11" s="59"/>
       <c r="BD11" s="59"/>
-      <c r="BE11" s="162"/>
-    </row>
-    <row r="12" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE11" s="111"/>
+    </row>
+    <row r="12" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="164"/>
+      <c r="B12" s="113"/>
       <c r="C12" s="34"/>
       <c r="D12" s="59"/>
       <c r="E12" s="60"/>
@@ -3176,166 +3176,166 @@
       <c r="I12" s="59"/>
       <c r="J12" s="59"/>
       <c r="K12" s="59"/>
-      <c r="L12" s="169"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="123"/>
-      <c r="O12" s="123"/>
-      <c r="P12" s="123"/>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="123"/>
-      <c r="S12" s="124"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="134"/>
+      <c r="P12" s="134"/>
+      <c r="Q12" s="134"/>
+      <c r="R12" s="134"/>
+      <c r="S12" s="159"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="122"/>
-      <c r="V12" s="123"/>
-      <c r="W12" s="123"/>
-      <c r="X12" s="123"/>
-      <c r="Y12" s="124"/>
+      <c r="U12" s="133"/>
+      <c r="V12" s="134"/>
+      <c r="W12" s="134"/>
+      <c r="X12" s="134"/>
+      <c r="Y12" s="159"/>
       <c r="Z12" s="59"/>
-      <c r="AA12" s="122"/>
-      <c r="AB12" s="123"/>
-      <c r="AC12" s="123"/>
-      <c r="AD12" s="123"/>
-      <c r="AE12" s="124"/>
+      <c r="AA12" s="133"/>
+      <c r="AB12" s="134"/>
+      <c r="AC12" s="134"/>
+      <c r="AD12" s="134"/>
+      <c r="AE12" s="159"/>
       <c r="AF12" s="59"/>
-      <c r="AG12" s="122"/>
-      <c r="AH12" s="123"/>
-      <c r="AI12" s="123"/>
-      <c r="AJ12" s="123"/>
-      <c r="AK12" s="123"/>
-      <c r="AL12" s="166"/>
+      <c r="AG12" s="133"/>
+      <c r="AH12" s="134"/>
+      <c r="AI12" s="134"/>
+      <c r="AJ12" s="134"/>
+      <c r="AK12" s="134"/>
+      <c r="AL12" s="115"/>
       <c r="AM12" s="59"/>
-      <c r="AN12" s="122"/>
-      <c r="AO12" s="123"/>
-      <c r="AP12" s="123"/>
-      <c r="AQ12" s="123"/>
-      <c r="AR12" s="123"/>
-      <c r="AS12" s="124"/>
+      <c r="AN12" s="133"/>
+      <c r="AO12" s="134"/>
+      <c r="AP12" s="134"/>
+      <c r="AQ12" s="134"/>
+      <c r="AR12" s="134"/>
+      <c r="AS12" s="159"/>
       <c r="AT12" s="33"/>
       <c r="BA12" s="59"/>
       <c r="BB12" s="59"/>
       <c r="BC12" s="59"/>
       <c r="BD12" s="59"/>
-      <c r="BE12" s="162"/>
-    </row>
-    <row r="13" spans="1:57" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE12" s="111"/>
+    </row>
+    <row r="13" spans="1:57" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="164"/>
+      <c r="B13" s="113"/>
       <c r="C13" s="34"/>
-      <c r="D13" s="112" t="s">
+      <c r="D13" s="181" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="114"/>
+      <c r="E13" s="183"/>
       <c r="F13" s="61"/>
       <c r="G13" s="60"/>
-      <c r="H13" s="112" t="s">
+      <c r="H13" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="113"/>
-      <c r="J13" s="114"/>
+      <c r="I13" s="182"/>
+      <c r="J13" s="183"/>
       <c r="K13" s="59"/>
-      <c r="L13" s="169"/>
-      <c r="M13" s="126"/>
-      <c r="N13" s="126"/>
-      <c r="O13" s="126"/>
-      <c r="P13" s="126"/>
-      <c r="Q13" s="126"/>
-      <c r="R13" s="126"/>
-      <c r="S13" s="127"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="136"/>
+      <c r="Q13" s="136"/>
+      <c r="R13" s="136"/>
+      <c r="S13" s="160"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="125"/>
-      <c r="V13" s="126"/>
-      <c r="W13" s="126"/>
-      <c r="X13" s="126"/>
-      <c r="Y13" s="127"/>
+      <c r="U13" s="135"/>
+      <c r="V13" s="136"/>
+      <c r="W13" s="136"/>
+      <c r="X13" s="136"/>
+      <c r="Y13" s="160"/>
       <c r="Z13" s="59"/>
-      <c r="AA13" s="125"/>
-      <c r="AB13" s="126"/>
-      <c r="AC13" s="126"/>
-      <c r="AD13" s="126"/>
-      <c r="AE13" s="127"/>
+      <c r="AA13" s="135"/>
+      <c r="AB13" s="136"/>
+      <c r="AC13" s="136"/>
+      <c r="AD13" s="136"/>
+      <c r="AE13" s="160"/>
       <c r="AF13" s="59"/>
-      <c r="AG13" s="125"/>
-      <c r="AH13" s="126"/>
-      <c r="AI13" s="126"/>
-      <c r="AJ13" s="126"/>
-      <c r="AK13" s="126"/>
-      <c r="AL13" s="166"/>
+      <c r="AG13" s="135"/>
+      <c r="AH13" s="136"/>
+      <c r="AI13" s="136"/>
+      <c r="AJ13" s="136"/>
+      <c r="AK13" s="136"/>
+      <c r="AL13" s="115"/>
       <c r="AM13" s="59"/>
-      <c r="AN13" s="125"/>
-      <c r="AO13" s="126"/>
-      <c r="AP13" s="126"/>
-      <c r="AQ13" s="126"/>
-      <c r="AR13" s="126"/>
-      <c r="AS13" s="127"/>
+      <c r="AN13" s="135"/>
+      <c r="AO13" s="136"/>
+      <c r="AP13" s="136"/>
+      <c r="AQ13" s="136"/>
+      <c r="AR13" s="136"/>
+      <c r="AS13" s="160"/>
       <c r="AT13" s="33"/>
       <c r="BA13" s="59"/>
       <c r="BB13" s="59"/>
       <c r="BC13" s="59"/>
       <c r="BD13" s="59"/>
-      <c r="BE13" s="162"/>
-    </row>
-    <row r="14" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE13" s="111"/>
+    </row>
+    <row r="14" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="164"/>
+      <c r="B14" s="113"/>
       <c r="C14" s="34"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="118"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="187"/>
       <c r="F14" s="61"/>
       <c r="G14" s="60"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="117"/>
+      <c r="H14" s="184"/>
+      <c r="I14" s="185"/>
+      <c r="J14" s="186"/>
       <c r="K14" s="59"/>
-      <c r="L14" s="169"/>
-      <c r="M14" s="129"/>
-      <c r="N14" s="129"/>
-      <c r="O14" s="129"/>
-      <c r="P14" s="129"/>
-      <c r="Q14" s="129"/>
-      <c r="R14" s="129"/>
-      <c r="S14" s="130"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="120"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="120"/>
+      <c r="R14" s="120"/>
+      <c r="S14" s="121"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="128"/>
-      <c r="V14" s="129"/>
-      <c r="W14" s="129"/>
-      <c r="X14" s="129"/>
-      <c r="Y14" s="130"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="120"/>
+      <c r="W14" s="120"/>
+      <c r="X14" s="120"/>
+      <c r="Y14" s="121"/>
       <c r="Z14" s="59"/>
-      <c r="AA14" s="128"/>
-      <c r="AB14" s="129"/>
-      <c r="AC14" s="129"/>
-      <c r="AD14" s="129"/>
-      <c r="AE14" s="130"/>
+      <c r="AA14" s="122"/>
+      <c r="AB14" s="120"/>
+      <c r="AC14" s="120"/>
+      <c r="AD14" s="120"/>
+      <c r="AE14" s="121"/>
       <c r="AF14" s="59"/>
-      <c r="AG14" s="128"/>
-      <c r="AH14" s="129"/>
-      <c r="AI14" s="129"/>
-      <c r="AJ14" s="129"/>
-      <c r="AK14" s="129"/>
-      <c r="AL14" s="166"/>
+      <c r="AG14" s="122"/>
+      <c r="AH14" s="120"/>
+      <c r="AI14" s="120"/>
+      <c r="AJ14" s="120"/>
+      <c r="AK14" s="120"/>
+      <c r="AL14" s="115"/>
       <c r="AM14" s="59"/>
-      <c r="AN14" s="128"/>
-      <c r="AO14" s="129"/>
-      <c r="AP14" s="129"/>
-      <c r="AQ14" s="129"/>
-      <c r="AR14" s="129"/>
-      <c r="AS14" s="130"/>
+      <c r="AN14" s="122"/>
+      <c r="AO14" s="120"/>
+      <c r="AP14" s="120"/>
+      <c r="AQ14" s="120"/>
+      <c r="AR14" s="120"/>
+      <c r="AS14" s="121"/>
       <c r="AT14" s="33"/>
       <c r="BA14" s="59"/>
       <c r="BB14" s="59"/>
       <c r="BC14" s="59"/>
       <c r="BD14" s="59"/>
-      <c r="BE14" s="162"/>
-    </row>
-    <row r="15" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BE14" s="111"/>
+    </row>
+    <row r="15" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="164"/>
+      <c r="B15" s="113"/>
       <c r="C15" s="34"/>
       <c r="D15" s="55" t="s">
         <v>26</v>
@@ -3356,8 +3356,8 @@
         <v>27</v>
       </c>
       <c r="K15" s="59"/>
-      <c r="L15" s="169"/>
-      <c r="M15" s="145">
+      <c r="L15" s="118"/>
+      <c r="M15" s="129">
         <f>IF(E31&gt;=1,ROW()-$O$16,"")</f>
         <v>-1</v>
       </c>
@@ -3366,13 +3366,13 @@
       <c r="P15" s="15">
         <v>4</v>
       </c>
-      <c r="Q15" s="150" t="s">
+      <c r="Q15" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="R15" s="151"/>
-      <c r="S15" s="135"/>
+      <c r="R15" s="169"/>
+      <c r="S15" s="126"/>
       <c r="T15" s="59"/>
-      <c r="U15" s="134"/>
+      <c r="U15" s="125"/>
       <c r="V15" s="71">
         <v>4</v>
       </c>
@@ -3380,9 +3380,9 @@
         <v>28</v>
       </c>
       <c r="X15" s="137"/>
-      <c r="Y15" s="134"/>
+      <c r="Y15" s="125"/>
       <c r="Z15" s="59"/>
-      <c r="AA15" s="134"/>
+      <c r="AA15" s="125"/>
       <c r="AB15" s="4">
         <v>4</v>
       </c>
@@ -3390,9 +3390,9 @@
         <v>28</v>
       </c>
       <c r="AD15" s="138"/>
-      <c r="AE15" s="134"/>
+      <c r="AE15" s="125"/>
       <c r="AF15" s="59"/>
-      <c r="AG15" s="134"/>
+      <c r="AG15" s="125"/>
       <c r="AH15" s="4">
         <v>6</v>
       </c>
@@ -3400,31 +3400,31 @@
         <v>28</v>
       </c>
       <c r="AJ15" s="138"/>
-      <c r="AK15" s="158"/>
-      <c r="AL15" s="166"/>
+      <c r="AK15" s="152"/>
+      <c r="AL15" s="115"/>
       <c r="AM15" s="59"/>
-      <c r="AN15" s="134"/>
+      <c r="AN15" s="125"/>
       <c r="AO15" s="4">
         <v>8</v>
       </c>
-      <c r="AP15" s="143" t="s">
+      <c r="AP15" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="AQ15" s="143"/>
-      <c r="AR15" s="144"/>
-      <c r="AS15" s="134"/>
+      <c r="AQ15" s="170"/>
+      <c r="AR15" s="171"/>
+      <c r="AS15" s="125"/>
       <c r="AT15" s="33"/>
       <c r="BA15" s="59"/>
       <c r="BB15" s="59"/>
       <c r="BC15" s="59"/>
       <c r="BD15" s="59"/>
-      <c r="BE15" s="162"/>
-    </row>
-    <row r="16" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE15" s="111"/>
+    </row>
+    <row r="16" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="164"/>
+      <c r="B16" s="113"/>
       <c r="C16" s="34"/>
       <c r="D16" s="56" t="s">
         <v>30</v>
@@ -3445,8 +3445,8 @@
         <v>31</v>
       </c>
       <c r="K16" s="59"/>
-      <c r="L16" s="169"/>
-      <c r="M16" s="145"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="129"/>
       <c r="N16" s="58"/>
       <c r="O16" s="58">
         <f>ROW()</f>
@@ -3461,9 +3461,9 @@
       <c r="R16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="S16" s="135"/>
+      <c r="S16" s="126"/>
       <c r="T16" s="59"/>
-      <c r="U16" s="135"/>
+      <c r="U16" s="126"/>
       <c r="V16" s="72" t="s">
         <v>32</v>
       </c>
@@ -3473,9 +3473,9 @@
       <c r="X16" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="Y16" s="135"/>
+      <c r="Y16" s="126"/>
       <c r="Z16" s="59"/>
-      <c r="AA16" s="135"/>
+      <c r="AA16" s="126"/>
       <c r="AB16" s="3" t="s">
         <v>32</v>
       </c>
@@ -3485,9 +3485,9 @@
       <c r="AD16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AE16" s="135"/>
+      <c r="AE16" s="126"/>
       <c r="AF16" s="59"/>
-      <c r="AG16" s="135"/>
+      <c r="AG16" s="126"/>
       <c r="AH16" s="3" t="s">
         <v>32</v>
       </c>
@@ -3497,10 +3497,10 @@
       <c r="AJ16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AK16" s="159"/>
-      <c r="AL16" s="166"/>
+      <c r="AK16" s="153"/>
+      <c r="AL16" s="115"/>
       <c r="AM16" s="59"/>
-      <c r="AN16" s="135"/>
+      <c r="AN16" s="126"/>
       <c r="AO16" s="3" t="s">
         <v>32</v>
       </c>
@@ -3513,19 +3513,19 @@
       <c r="AR16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AS16" s="135"/>
+      <c r="AS16" s="126"/>
       <c r="AT16" s="33"/>
       <c r="BA16" s="59"/>
       <c r="BB16" s="59"/>
       <c r="BC16" s="59"/>
       <c r="BD16" s="59"/>
-      <c r="BE16" s="162"/>
-    </row>
-    <row r="17" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE16" s="111"/>
+    </row>
+    <row r="17" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="164"/>
+      <c r="B17" s="113"/>
       <c r="C17" s="34"/>
       <c r="D17" s="56" t="s">
         <v>37</v>
@@ -3546,8 +3546,8 @@
         <v>38</v>
       </c>
       <c r="K17" s="59"/>
-      <c r="L17" s="169"/>
-      <c r="M17" s="145"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="129"/>
       <c r="N17" s="58" t="str">
         <f t="shared" ref="N17:N40" si="0">IF(E15=2,D15 &amp; "  [DQ]",D15)</f>
         <v>Batefimbi</v>
@@ -3556,7 +3556,7 @@
         <f t="shared" ref="O17:O40" si="1">IF(E15&gt;=1,ROW()-$O$16,"")</f>
         <v>1</v>
       </c>
-      <c r="P17" s="131" t="s">
+      <c r="P17" s="123" t="s">
         <v>39</v>
       </c>
       <c r="Q17" s="10" t="str" cm="1">
@@ -3566,10 +3566,10 @@
       <c r="R17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="S17" s="135"/>
+      <c r="S17" s="126"/>
       <c r="T17" s="59"/>
-      <c r="U17" s="135"/>
-      <c r="V17" s="147" t="s">
+      <c r="U17" s="126"/>
+      <c r="V17" s="165" t="s">
         <v>40</v>
       </c>
       <c r="W17" s="10" t="str">
@@ -3579,10 +3579,10 @@
       <c r="X17" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="Y17" s="135"/>
+      <c r="Y17" s="126"/>
       <c r="Z17" s="59"/>
-      <c r="AA17" s="135"/>
-      <c r="AB17" s="139" t="s">
+      <c r="AA17" s="126"/>
+      <c r="AB17" s="155" t="s">
         <v>42</v>
       </c>
       <c r="AC17" s="16" t="str">
@@ -3592,10 +3592,10 @@
       <c r="AD17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AE17" s="145"/>
+      <c r="AE17" s="129"/>
       <c r="AF17" s="59"/>
-      <c r="AG17" s="135"/>
-      <c r="AH17" s="131" t="s">
+      <c r="AG17" s="126"/>
+      <c r="AH17" s="123" t="s">
         <v>44</v>
       </c>
       <c r="AI17" s="10" t="str">
@@ -3605,11 +3605,11 @@
       <c r="AJ17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AK17" s="159"/>
-      <c r="AL17" s="166"/>
+      <c r="AK17" s="153"/>
+      <c r="AL17" s="115"/>
       <c r="AM17" s="59"/>
-      <c r="AN17" s="135"/>
-      <c r="AO17" s="131" t="s">
+      <c r="AN17" s="126"/>
+      <c r="AO17" s="123" t="s">
         <v>45</v>
       </c>
       <c r="AP17" s="16" t="str">
@@ -3622,19 +3622,19 @@
       <c r="AR17" s="40">
         <v>97</v>
       </c>
-      <c r="AS17" s="145"/>
+      <c r="AS17" s="129"/>
       <c r="AT17" s="33"/>
       <c r="BA17" s="59"/>
       <c r="BB17" s="59"/>
       <c r="BC17" s="59"/>
       <c r="BD17" s="59"/>
-      <c r="BE17" s="162"/>
-    </row>
-    <row r="18" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE17" s="111"/>
+    </row>
+    <row r="18" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="164"/>
+      <c r="B18" s="113"/>
       <c r="C18" s="35"/>
       <c r="D18" s="56" t="s">
         <v>47</v>
@@ -3655,8 +3655,8 @@
         <v>48</v>
       </c>
       <c r="K18" s="59"/>
-      <c r="L18" s="169"/>
-      <c r="M18" s="145"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="129"/>
       <c r="N18" s="58" t="str">
         <f t="shared" si="0"/>
         <v>GoGu</v>
@@ -3665,7 +3665,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P18" s="132"/>
+      <c r="P18" s="124"/>
       <c r="Q18" s="11" t="str" cm="1">
         <f t="array" ref="Q18">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B7))),"-")</f>
         <v>Kabag</v>
@@ -3673,10 +3673,10 @@
       <c r="R18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="S18" s="135"/>
+      <c r="S18" s="126"/>
       <c r="T18" s="59"/>
-      <c r="U18" s="135"/>
-      <c r="V18" s="148"/>
+      <c r="U18" s="126"/>
+      <c r="V18" s="166"/>
       <c r="W18" s="11" t="str">
         <f>IF(ISBLANK($R$29),"D1",$R$29)</f>
         <v>SewLink</v>
@@ -3684,10 +3684,10 @@
       <c r="X18" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="Y18" s="135"/>
+      <c r="Y18" s="126"/>
       <c r="Z18" s="59"/>
-      <c r="AA18" s="135"/>
-      <c r="AB18" s="140"/>
+      <c r="AA18" s="126"/>
+      <c r="AB18" s="156"/>
       <c r="AC18" s="17" t="str">
         <f>IF(ISBLANK($X$25),"I1",$X$25)</f>
         <v>Bastien</v>
@@ -3695,10 +3695,10 @@
       <c r="AD18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AE18" s="145"/>
+      <c r="AE18" s="129"/>
       <c r="AF18" s="59"/>
-      <c r="AG18" s="135"/>
-      <c r="AH18" s="132"/>
+      <c r="AG18" s="126"/>
+      <c r="AH18" s="124"/>
       <c r="AI18" s="11" t="str">
         <f>IF(ISBLANK($AD$20),"K1",$AD$20)</f>
         <v>GoGu</v>
@@ -3706,11 +3706,11 @@
       <c r="AJ18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AK18" s="159"/>
-      <c r="AL18" s="166"/>
+      <c r="AK18" s="153"/>
+      <c r="AL18" s="115"/>
       <c r="AM18" s="59"/>
-      <c r="AN18" s="135"/>
-      <c r="AO18" s="132"/>
+      <c r="AN18" s="126"/>
+      <c r="AO18" s="124"/>
       <c r="AP18" s="17" t="str">
         <f>IF(ISBLANK($AJ$18),"WF2",$AJ$18)</f>
         <v>GoGu</v>
@@ -3721,19 +3721,19 @@
       <c r="AR18" s="41">
         <v>96</v>
       </c>
-      <c r="AS18" s="145"/>
+      <c r="AS18" s="129"/>
       <c r="AT18" s="33"/>
       <c r="BA18" s="59"/>
       <c r="BB18" s="59"/>
       <c r="BC18" s="59"/>
       <c r="BD18" s="59"/>
-      <c r="BE18" s="162"/>
-    </row>
-    <row r="19" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE18" s="111"/>
+    </row>
+    <row r="19" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="164"/>
+      <c r="B19" s="113"/>
       <c r="C19" s="35"/>
       <c r="D19" s="56" t="s">
         <v>43</v>
@@ -3754,8 +3754,8 @@
         <v>51</v>
       </c>
       <c r="K19" s="59"/>
-      <c r="L19" s="169"/>
-      <c r="M19" s="145"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="129"/>
       <c r="N19" s="58" t="str">
         <f t="shared" si="0"/>
         <v>Bastien</v>
@@ -3764,7 +3764,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="P19" s="132"/>
+      <c r="P19" s="124"/>
       <c r="Q19" s="11" t="str" cm="1">
         <f t="array" ref="Q19">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B13))),"-")</f>
         <v>Canard</v>
@@ -3772,10 +3772,10 @@
       <c r="R19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="S19" s="135"/>
+      <c r="S19" s="126"/>
       <c r="T19" s="59"/>
-      <c r="U19" s="135"/>
-      <c r="V19" s="148"/>
+      <c r="U19" s="126"/>
+      <c r="V19" s="166"/>
       <c r="W19" s="11" t="str">
         <f>IF(ISBLANK($R$22),"B2",$R$22)</f>
         <v>Bastian</v>
@@ -3783,10 +3783,10 @@
       <c r="X19" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="Y19" s="135"/>
+      <c r="Y19" s="126"/>
       <c r="Z19" s="59"/>
-      <c r="AA19" s="135"/>
-      <c r="AB19" s="141"/>
+      <c r="AA19" s="126"/>
+      <c r="AB19" s="157"/>
       <c r="AC19" s="11" t="str">
         <f>IF(ISBLANK($X$22),"H2",$X$22)</f>
         <v>Supnyus</v>
@@ -3794,10 +3794,10 @@
       <c r="AD19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AE19" s="135"/>
+      <c r="AE19" s="126"/>
       <c r="AF19" s="59"/>
-      <c r="AG19" s="135"/>
-      <c r="AH19" s="132"/>
+      <c r="AG19" s="126"/>
+      <c r="AH19" s="124"/>
       <c r="AI19" s="11" t="str">
         <f>IF(ISBLANK($AD$18),"J2",$AD$18)</f>
         <v>Bastien</v>
@@ -3805,11 +3805,11 @@
       <c r="AJ19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AK19" s="159"/>
-      <c r="AL19" s="166"/>
+      <c r="AK19" s="153"/>
+      <c r="AL19" s="115"/>
       <c r="AM19" s="59"/>
-      <c r="AN19" s="135"/>
-      <c r="AO19" s="132"/>
+      <c r="AN19" s="126"/>
+      <c r="AO19" s="124"/>
       <c r="AP19" s="17" t="str">
         <f>IF(ISBLANK($AJ$55),"LF1",$AJ$55)</f>
         <v>AksL</v>
@@ -3820,19 +3820,19 @@
       <c r="AR19" s="42">
         <v>92</v>
       </c>
-      <c r="AS19" s="145"/>
+      <c r="AS19" s="129"/>
       <c r="AT19" s="33"/>
       <c r="BA19" s="59"/>
       <c r="BB19" s="59"/>
       <c r="BC19" s="59"/>
       <c r="BD19" s="59"/>
-      <c r="BE19" s="162"/>
-    </row>
-    <row r="20" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE19" s="111"/>
+    </row>
+    <row r="20" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="164"/>
+      <c r="B20" s="113"/>
       <c r="C20" s="35"/>
       <c r="D20" s="56" t="s">
         <v>55</v>
@@ -3853,8 +3853,8 @@
         <v>56</v>
       </c>
       <c r="K20" s="59"/>
-      <c r="L20" s="169"/>
-      <c r="M20" s="145"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="129"/>
       <c r="N20" s="58" t="str">
         <f t="shared" si="0"/>
         <v>SewLink</v>
@@ -3863,7 +3863,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="P20" s="133"/>
+      <c r="P20" s="150"/>
       <c r="Q20" s="12" t="str" cm="1">
         <f t="array" ref="Q20">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B19))),"-")</f>
         <v>KevLeBoss</v>
@@ -3871,10 +3871,10 @@
       <c r="R20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="S20" s="135"/>
+      <c r="S20" s="126"/>
       <c r="T20" s="59"/>
-      <c r="U20" s="135"/>
-      <c r="V20" s="149"/>
+      <c r="U20" s="126"/>
+      <c r="V20" s="167"/>
       <c r="W20" s="12" t="str">
         <f>IF(ISBLANK($R$34),"E2",$R$34)</f>
         <v>ioupy</v>
@@ -3882,10 +3882,10 @@
       <c r="X20" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="Y20" s="135"/>
+      <c r="Y20" s="126"/>
       <c r="Z20" s="59"/>
-      <c r="AA20" s="135"/>
-      <c r="AB20" s="132" t="s">
+      <c r="AA20" s="126"/>
+      <c r="AB20" s="124" t="s">
         <v>58</v>
       </c>
       <c r="AC20" s="16" t="str">
@@ -3895,10 +3895,10 @@
       <c r="AD20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AE20" s="145"/>
+      <c r="AE20" s="129"/>
       <c r="AF20" s="59"/>
-      <c r="AG20" s="136"/>
-      <c r="AH20" s="133"/>
+      <c r="AG20" s="127"/>
+      <c r="AH20" s="150"/>
       <c r="AI20" s="12" t="str">
         <f>IF(ISBLANK($AD$21),"K2",$AD$21)</f>
         <v>Batefimbi</v>
@@ -3906,11 +3906,11 @@
       <c r="AJ20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AK20" s="160"/>
-      <c r="AL20" s="166"/>
+      <c r="AK20" s="154"/>
+      <c r="AL20" s="115"/>
       <c r="AM20" s="59"/>
-      <c r="AN20" s="136"/>
-      <c r="AO20" s="133"/>
+      <c r="AN20" s="127"/>
+      <c r="AO20" s="150"/>
       <c r="AP20" s="18" t="str">
         <f>IF(ISBLANK($AJ$56),"LF2",$AJ$56)</f>
         <v>SewLink</v>
@@ -3921,19 +3921,19 @@
       <c r="AR20" s="13">
         <v>83</v>
       </c>
-      <c r="AS20" s="157"/>
+      <c r="AS20" s="130"/>
       <c r="AT20" s="33"/>
       <c r="BA20" s="59"/>
       <c r="BB20" s="59"/>
       <c r="BC20" s="59"/>
       <c r="BD20" s="59"/>
-      <c r="BE20" s="162"/>
-    </row>
-    <row r="21" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE20" s="111"/>
+    </row>
+    <row r="21" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="164"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="35"/>
       <c r="D21" s="56" t="s">
         <v>49</v>
@@ -3944,7 +3944,7 @@
       <c r="F21" s="61"/>
       <c r="G21" s="61"/>
       <c r="H21" s="51" t="s">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="I21" s="23" t="str">
         <f>IF(ISBLANK(AQ33),"TBD",AQ33)</f>
@@ -3954,8 +3954,8 @@
         <v>61</v>
       </c>
       <c r="K21" s="59"/>
-      <c r="L21" s="169"/>
-      <c r="M21" s="145"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="129"/>
       <c r="N21" s="58" t="str">
         <f t="shared" si="0"/>
         <v>Supnyus</v>
@@ -3964,7 +3964,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="P21" s="131" t="s">
+      <c r="P21" s="123" t="s">
         <v>62</v>
       </c>
       <c r="Q21" s="10" t="str" cm="1">
@@ -3974,10 +3974,10 @@
       <c r="R21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="S21" s="135"/>
+      <c r="S21" s="126"/>
       <c r="T21" s="59"/>
-      <c r="U21" s="135"/>
-      <c r="V21" s="147" t="s">
+      <c r="U21" s="126"/>
+      <c r="V21" s="165" t="s">
         <v>63</v>
       </c>
       <c r="W21" s="11" t="str">
@@ -3987,10 +3987,10 @@
       <c r="X21" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="Y21" s="135"/>
+      <c r="Y21" s="126"/>
       <c r="Z21" s="59"/>
-      <c r="AA21" s="135"/>
-      <c r="AB21" s="132"/>
+      <c r="AA21" s="126"/>
+      <c r="AB21" s="124"/>
       <c r="AC21" s="17" t="str">
         <f>IF(ISBLANK($X$18),"G2",$X$18)</f>
         <v>Batefimbi</v>
@@ -3998,33 +3998,33 @@
       <c r="AD21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AE21" s="145"/>
+      <c r="AE21" s="129"/>
       <c r="AF21" s="59"/>
-      <c r="AG21" s="128"/>
-      <c r="AH21" s="129"/>
-      <c r="AI21" s="129"/>
-      <c r="AJ21" s="129"/>
-      <c r="AK21" s="129"/>
-      <c r="AL21" s="166"/>
+      <c r="AG21" s="122"/>
+      <c r="AH21" s="120"/>
+      <c r="AI21" s="120"/>
+      <c r="AJ21" s="120"/>
+      <c r="AK21" s="120"/>
+      <c r="AL21" s="115"/>
       <c r="AM21" s="59"/>
-      <c r="AN21" s="128"/>
-      <c r="AO21" s="129"/>
-      <c r="AP21" s="142"/>
-      <c r="AQ21" s="142"/>
-      <c r="AR21" s="142"/>
-      <c r="AS21" s="130"/>
+      <c r="AN21" s="122"/>
+      <c r="AO21" s="120"/>
+      <c r="AP21" s="151"/>
+      <c r="AQ21" s="151"/>
+      <c r="AR21" s="151"/>
+      <c r="AS21" s="121"/>
       <c r="AT21" s="33"/>
       <c r="BA21" s="59"/>
       <c r="BB21" s="59"/>
       <c r="BC21" s="59"/>
       <c r="BD21" s="59"/>
-      <c r="BE21" s="162"/>
-    </row>
-    <row r="22" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE21" s="111"/>
+    </row>
+    <row r="22" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="164"/>
+      <c r="B22" s="113"/>
       <c r="C22" s="35"/>
       <c r="D22" s="56" t="s">
         <v>41</v>
@@ -4035,7 +4035,7 @@
       <c r="F22" s="61"/>
       <c r="G22" s="61"/>
       <c r="H22" s="51" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="I22" s="23" t="str">
         <f>IF(ISBLANK(AQ34),"TBD",AQ34)</f>
@@ -4045,8 +4045,8 @@
         <v>65</v>
       </c>
       <c r="K22" s="59"/>
-      <c r="L22" s="169"/>
-      <c r="M22" s="145"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="129"/>
       <c r="N22" s="58" t="str">
         <f t="shared" si="0"/>
         <v>Voltar</v>
@@ -4055,7 +4055,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="P22" s="132"/>
+      <c r="P22" s="124"/>
       <c r="Q22" s="11" t="str" cm="1">
         <f t="array" ref="Q22">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B8))),"-")</f>
         <v>Bastian</v>
@@ -4063,10 +4063,10 @@
       <c r="R22" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="S22" s="135"/>
+      <c r="S22" s="126"/>
       <c r="T22" s="59"/>
-      <c r="U22" s="135"/>
-      <c r="V22" s="148"/>
+      <c r="U22" s="126"/>
+      <c r="V22" s="166"/>
       <c r="W22" s="11" t="str">
         <f>IF(ISBLANK($R$33),"E1",$R$33)</f>
         <v>Supnyus</v>
@@ -4074,10 +4074,10 @@
       <c r="X22" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="Y22" s="135"/>
+      <c r="Y22" s="126"/>
       <c r="Z22" s="59"/>
-      <c r="AA22" s="135"/>
-      <c r="AB22" s="132"/>
+      <c r="AA22" s="126"/>
+      <c r="AB22" s="124"/>
       <c r="AC22" s="12" t="str">
         <f>IF(ISBLANK($X$26),"I2",$X$26)</f>
         <v>Charasime</v>
@@ -4085,14 +4085,14 @@
       <c r="AD22" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="AE22" s="135"/>
+      <c r="AE22" s="126"/>
       <c r="AF22" s="59"/>
       <c r="AG22" s="59"/>
       <c r="AH22" s="59"/>
       <c r="AI22" s="59"/>
       <c r="AJ22" s="59"/>
       <c r="AK22" s="59"/>
-      <c r="AL22" s="166"/>
+      <c r="AL22" s="115"/>
       <c r="AM22" s="59"/>
       <c r="AN22" s="59"/>
       <c r="AO22" s="59"/>
@@ -4105,13 +4105,13 @@
       <c r="BB22" s="59"/>
       <c r="BC22" s="59"/>
       <c r="BD22" s="59"/>
-      <c r="BE22" s="162"/>
-    </row>
-    <row r="23" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE22" s="111"/>
+    </row>
+    <row r="23" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="164"/>
+      <c r="B23" s="113"/>
       <c r="C23" s="35"/>
       <c r="D23" s="56" t="s">
         <v>68</v>
@@ -4132,8 +4132,8 @@
         <v>69</v>
       </c>
       <c r="K23" s="59"/>
-      <c r="L23" s="169"/>
-      <c r="M23" s="145"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="129"/>
       <c r="N23" s="58" t="str">
         <f t="shared" si="0"/>
         <v>Kabag</v>
@@ -4142,7 +4142,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="P23" s="132"/>
+      <c r="P23" s="124"/>
       <c r="Q23" s="11" t="str" cm="1">
         <f t="array" ref="Q23">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B14))),"-")</f>
         <v>Kikozu</v>
@@ -4150,10 +4150,10 @@
       <c r="R23" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="S23" s="135"/>
+      <c r="S23" s="126"/>
       <c r="T23" s="59"/>
-      <c r="U23" s="135"/>
-      <c r="V23" s="148"/>
+      <c r="U23" s="126"/>
+      <c r="V23" s="166"/>
       <c r="W23" s="11" t="str">
         <f>IF(ISBLANK($R$26),"C2",$R$26)</f>
         <v>Xols</v>
@@ -4161,20 +4161,20 @@
       <c r="X23" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="Y23" s="135"/>
+      <c r="Y23" s="126"/>
       <c r="Z23" s="59"/>
-      <c r="AA23" s="128"/>
-      <c r="AB23" s="129"/>
-      <c r="AC23" s="129"/>
-      <c r="AD23" s="129"/>
-      <c r="AE23" s="130"/>
+      <c r="AA23" s="122"/>
+      <c r="AB23" s="120"/>
+      <c r="AC23" s="120"/>
+      <c r="AD23" s="120"/>
+      <c r="AE23" s="121"/>
       <c r="AF23" s="59"/>
       <c r="AG23" s="59"/>
       <c r="AH23" s="59"/>
       <c r="AI23" s="59"/>
       <c r="AJ23" s="59"/>
       <c r="AK23" s="59"/>
-      <c r="AL23" s="166"/>
+      <c r="AL23" s="115"/>
       <c r="AM23" s="59"/>
       <c r="AN23" s="59"/>
       <c r="AO23" s="59"/>
@@ -4187,13 +4187,13 @@
       <c r="BB23" s="59"/>
       <c r="BC23" s="59"/>
       <c r="BD23" s="59"/>
-      <c r="BE23" s="162"/>
-    </row>
-    <row r="24" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE23" s="111"/>
+    </row>
+    <row r="24" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="164"/>
+      <c r="B24" s="113"/>
       <c r="C24" s="35"/>
       <c r="D24" s="56" t="s">
         <v>66</v>
@@ -4214,8 +4214,8 @@
         <v>69</v>
       </c>
       <c r="K24" s="59"/>
-      <c r="L24" s="169"/>
-      <c r="M24" s="145"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="129"/>
       <c r="N24" s="58" t="str">
         <f>IF(E22=2,D22 &amp; "  [DQ]",D22)</f>
         <v>Bastian</v>
@@ -4224,7 +4224,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="P24" s="133"/>
+      <c r="P24" s="150"/>
       <c r="Q24" s="12" t="str" cm="1">
         <f t="array" ref="Q24">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B20))),"-")</f>
         <v>Gagou</v>
@@ -4232,10 +4232,10 @@
       <c r="R24" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="S24" s="135"/>
+      <c r="S24" s="126"/>
       <c r="T24" s="59"/>
-      <c r="U24" s="135"/>
-      <c r="V24" s="149"/>
+      <c r="U24" s="126"/>
+      <c r="V24" s="167"/>
       <c r="W24" s="12" t="str">
         <f>IF(ISBLANK($R$38),"F2",$R$38)</f>
         <v>Aibelle</v>
@@ -4243,7 +4243,7 @@
       <c r="X24" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="Y24" s="135"/>
+      <c r="Y24" s="126"/>
       <c r="Z24" s="59"/>
       <c r="AA24" s="59"/>
       <c r="AB24" s="88"/>
@@ -4256,7 +4256,7 @@
       <c r="AI24" s="59"/>
       <c r="AJ24" s="59"/>
       <c r="AK24" s="59"/>
-      <c r="AL24" s="166"/>
+      <c r="AL24" s="115"/>
       <c r="AM24" s="59"/>
       <c r="AN24" s="59"/>
       <c r="AO24" s="59"/>
@@ -4269,13 +4269,13 @@
       <c r="BB24" s="59"/>
       <c r="BC24" s="59"/>
       <c r="BD24" s="59"/>
-      <c r="BE24" s="162"/>
-    </row>
-    <row r="25" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE24" s="111"/>
+    </row>
+    <row r="25" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="164"/>
+      <c r="B25" s="113"/>
       <c r="C25" s="35"/>
       <c r="D25" s="56" t="s">
         <v>53</v>
@@ -4296,8 +4296,8 @@
         <v>75</v>
       </c>
       <c r="K25" s="59"/>
-      <c r="L25" s="169"/>
-      <c r="M25" s="145"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="129"/>
       <c r="N25" s="58" t="str">
         <f t="shared" si="0"/>
         <v>Xols</v>
@@ -4306,7 +4306,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="P25" s="131" t="s">
+      <c r="P25" s="123" t="s">
         <v>76</v>
       </c>
       <c r="Q25" s="10" t="str" cm="1">
@@ -4316,10 +4316,10 @@
       <c r="R25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="S25" s="135"/>
+      <c r="S25" s="126"/>
       <c r="T25" s="59"/>
-      <c r="U25" s="135"/>
-      <c r="V25" s="139" t="s">
+      <c r="U25" s="126"/>
+      <c r="V25" s="155" t="s">
         <v>77</v>
       </c>
       <c r="W25" s="11" t="str">
@@ -4329,7 +4329,7 @@
       <c r="X25" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="Y25" s="135"/>
+      <c r="Y25" s="126"/>
       <c r="Z25" s="59"/>
       <c r="AA25" s="59"/>
       <c r="AB25" s="59"/>
@@ -4342,28 +4342,28 @@
       <c r="AI25" s="59"/>
       <c r="AJ25" s="59"/>
       <c r="AK25" s="59"/>
-      <c r="AL25" s="166"/>
+      <c r="AL25" s="115"/>
       <c r="AM25" s="59"/>
-      <c r="AN25" s="119" t="s">
+      <c r="AN25" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="AO25" s="120"/>
-      <c r="AP25" s="120"/>
-      <c r="AQ25" s="120"/>
-      <c r="AR25" s="120"/>
-      <c r="AS25" s="121"/>
+      <c r="AO25" s="132"/>
+      <c r="AP25" s="132"/>
+      <c r="AQ25" s="132"/>
+      <c r="AR25" s="132"/>
+      <c r="AS25" s="158"/>
       <c r="AT25" s="33"/>
       <c r="BA25" s="59"/>
       <c r="BB25" s="59"/>
       <c r="BC25" s="59"/>
       <c r="BD25" s="59"/>
-      <c r="BE25" s="162"/>
-    </row>
-    <row r="26" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE25" s="111"/>
+    </row>
+    <row r="26" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="164"/>
+      <c r="B26" s="113"/>
       <c r="C26" s="35"/>
       <c r="D26" s="56" t="s">
         <v>73</v>
@@ -4384,8 +4384,8 @@
         <v>75</v>
       </c>
       <c r="K26" s="59"/>
-      <c r="L26" s="169"/>
-      <c r="M26" s="145"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="129"/>
       <c r="N26" s="58" t="str">
         <f t="shared" si="0"/>
         <v>Charasime</v>
@@ -4394,7 +4394,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P26" s="132"/>
+      <c r="P26" s="124"/>
       <c r="Q26" s="11" t="str" cm="1">
         <f t="array" ref="Q26">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B9))),"-")</f>
         <v>Xols</v>
@@ -4402,10 +4402,10 @@
       <c r="R26" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="S26" s="135"/>
+      <c r="S26" s="126"/>
       <c r="T26" s="59"/>
-      <c r="U26" s="135"/>
-      <c r="V26" s="140"/>
+      <c r="U26" s="126"/>
+      <c r="V26" s="156"/>
       <c r="W26" s="11" t="str">
         <f>IF(ISBLANK($R$37),"F1",$R$37)</f>
         <v>AksL</v>
@@ -4413,7 +4413,7 @@
       <c r="X26" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="Y26" s="135"/>
+      <c r="Y26" s="126"/>
       <c r="Z26" s="59"/>
       <c r="AA26" s="59"/>
       <c r="AB26" s="59"/>
@@ -4426,26 +4426,26 @@
       <c r="AI26" s="59"/>
       <c r="AJ26" s="59"/>
       <c r="AK26" s="59"/>
-      <c r="AL26" s="166"/>
+      <c r="AL26" s="115"/>
       <c r="AM26" s="59"/>
-      <c r="AN26" s="122"/>
-      <c r="AO26" s="123"/>
-      <c r="AP26" s="123"/>
-      <c r="AQ26" s="123"/>
-      <c r="AR26" s="123"/>
-      <c r="AS26" s="124"/>
+      <c r="AN26" s="133"/>
+      <c r="AO26" s="134"/>
+      <c r="AP26" s="134"/>
+      <c r="AQ26" s="134"/>
+      <c r="AR26" s="134"/>
+      <c r="AS26" s="159"/>
       <c r="AT26" s="33"/>
       <c r="BA26" s="59"/>
       <c r="BB26" s="59"/>
       <c r="BC26" s="59"/>
       <c r="BD26" s="59"/>
-      <c r="BE26" s="162"/>
-    </row>
-    <row r="27" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE26" s="111"/>
+    </row>
+    <row r="27" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="164"/>
+      <c r="B27" s="113"/>
       <c r="C27" s="35"/>
       <c r="D27" s="56" t="s">
         <v>52</v>
@@ -4466,8 +4466,8 @@
         <v>81</v>
       </c>
       <c r="K27" s="59"/>
-      <c r="L27" s="169"/>
-      <c r="M27" s="145"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="129"/>
       <c r="N27" s="58" t="str">
         <f>IF(E25=2,D25 &amp; "  [DQ]",D25)</f>
         <v>ioupy</v>
@@ -4476,7 +4476,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="P27" s="132"/>
+      <c r="P27" s="124"/>
       <c r="Q27" s="11" t="str" cm="1">
         <f t="array" ref="Q27">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B15))),"-")</f>
         <v>Priski</v>
@@ -4484,10 +4484,10 @@
       <c r="R27" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="S27" s="135"/>
+      <c r="S27" s="126"/>
       <c r="T27" s="59"/>
-      <c r="U27" s="135"/>
-      <c r="V27" s="140"/>
+      <c r="U27" s="126"/>
+      <c r="V27" s="156"/>
       <c r="W27" s="11" t="str">
         <f>IF(ISBLANK($R$18),"A2",$R$18)</f>
         <v>Kabag</v>
@@ -4495,7 +4495,7 @@
       <c r="X27" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="Y27" s="135"/>
+      <c r="Y27" s="126"/>
       <c r="Z27" s="59"/>
       <c r="AA27" s="59"/>
       <c r="AB27" s="59"/>
@@ -4508,26 +4508,26 @@
       <c r="AI27" s="59"/>
       <c r="AJ27" s="59"/>
       <c r="AK27" s="59"/>
-      <c r="AL27" s="166"/>
+      <c r="AL27" s="115"/>
       <c r="AM27" s="59"/>
-      <c r="AN27" s="125"/>
-      <c r="AO27" s="126"/>
-      <c r="AP27" s="126"/>
-      <c r="AQ27" s="126"/>
-      <c r="AR27" s="126"/>
-      <c r="AS27" s="127"/>
+      <c r="AN27" s="135"/>
+      <c r="AO27" s="136"/>
+      <c r="AP27" s="136"/>
+      <c r="AQ27" s="136"/>
+      <c r="AR27" s="136"/>
+      <c r="AS27" s="160"/>
       <c r="AT27" s="33"/>
       <c r="BA27" s="59"/>
       <c r="BB27" s="59"/>
       <c r="BC27" s="59"/>
       <c r="BD27" s="59"/>
-      <c r="BE27" s="162"/>
-    </row>
-    <row r="28" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE27" s="111"/>
+    </row>
+    <row r="28" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="164"/>
+      <c r="B28" s="113"/>
       <c r="C28" s="35"/>
       <c r="D28" s="56" t="s">
         <v>70</v>
@@ -4548,8 +4548,8 @@
         <v>81</v>
       </c>
       <c r="K28" s="59"/>
-      <c r="L28" s="169"/>
-      <c r="M28" s="145"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="129"/>
       <c r="N28" s="58" t="str">
         <f t="shared" si="0"/>
         <v>Aibelle</v>
@@ -4558,7 +4558,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="P28" s="133"/>
+      <c r="P28" s="150"/>
       <c r="Q28" s="12" t="str" cm="1">
         <f t="array" ref="Q28">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B21))),"-")</f>
         <v>Zoz</v>
@@ -4566,10 +4566,10 @@
       <c r="R28" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="S28" s="135"/>
+      <c r="S28" s="126"/>
       <c r="T28" s="59"/>
-      <c r="U28" s="136"/>
-      <c r="V28" s="141"/>
+      <c r="U28" s="127"/>
+      <c r="V28" s="157"/>
       <c r="W28" s="11" t="str">
         <f>IF(ISBLANK($R$30),"D2",$R$30)</f>
         <v>Charasime</v>
@@ -4577,7 +4577,7 @@
       <c r="X28" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="Y28" s="136"/>
+      <c r="Y28" s="127"/>
       <c r="Z28" s="59"/>
       <c r="AA28" s="59"/>
       <c r="AB28" s="59"/>
@@ -4590,26 +4590,26 @@
       <c r="AI28" s="59"/>
       <c r="AJ28" s="59"/>
       <c r="AK28" s="59"/>
-      <c r="AL28" s="166"/>
+      <c r="AL28" s="115"/>
       <c r="AM28" s="59"/>
-      <c r="AN28" s="128"/>
-      <c r="AO28" s="129"/>
-      <c r="AP28" s="129"/>
-      <c r="AQ28" s="129"/>
-      <c r="AR28" s="129"/>
-      <c r="AS28" s="130"/>
+      <c r="AN28" s="122"/>
+      <c r="AO28" s="120"/>
+      <c r="AP28" s="120"/>
+      <c r="AQ28" s="120"/>
+      <c r="AR28" s="120"/>
+      <c r="AS28" s="121"/>
       <c r="AT28" s="33"/>
       <c r="BA28" s="59"/>
       <c r="BB28" s="59"/>
       <c r="BC28" s="59"/>
       <c r="BD28" s="59"/>
-      <c r="BE28" s="162"/>
-    </row>
-    <row r="29" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BE28" s="111"/>
+    </row>
+    <row r="29" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="164"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="35"/>
       <c r="D29" s="23" t="s">
         <v>82</v>
@@ -4630,8 +4630,8 @@
         <v>81</v>
       </c>
       <c r="K29" s="59"/>
-      <c r="L29" s="169"/>
-      <c r="M29" s="145"/>
+      <c r="L29" s="118"/>
+      <c r="M29" s="129"/>
       <c r="N29" s="58" t="str">
         <f t="shared" si="0"/>
         <v>Canard</v>
@@ -4640,7 +4640,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="P29" s="131" t="s">
+      <c r="P29" s="123" t="s">
         <v>86</v>
       </c>
       <c r="Q29" s="10" t="str" cm="1">
@@ -4650,13 +4650,13 @@
       <c r="R29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="S29" s="135"/>
+      <c r="S29" s="126"/>
       <c r="T29" s="59"/>
-      <c r="U29" s="128"/>
-      <c r="V29" s="129"/>
-      <c r="W29" s="129"/>
-      <c r="X29" s="129"/>
-      <c r="Y29" s="130"/>
+      <c r="U29" s="122"/>
+      <c r="V29" s="120"/>
+      <c r="W29" s="120"/>
+      <c r="X29" s="120"/>
+      <c r="Y29" s="121"/>
       <c r="Z29" s="59"/>
       <c r="AA29" s="59"/>
       <c r="AB29" s="59"/>
@@ -4669,9 +4669,9 @@
       <c r="AI29" s="59"/>
       <c r="AJ29" s="59"/>
       <c r="AK29" s="59"/>
-      <c r="AL29" s="166"/>
+      <c r="AL29" s="115"/>
       <c r="AM29" s="59"/>
-      <c r="AN29" s="134"/>
+      <c r="AN29" s="125"/>
       <c r="AO29" s="4">
         <v>8</v>
       </c>
@@ -4680,19 +4680,19 @@
       </c>
       <c r="AQ29" s="137"/>
       <c r="AR29" s="138"/>
-      <c r="AS29" s="134"/>
+      <c r="AS29" s="125"/>
       <c r="AT29" s="33"/>
       <c r="BA29" s="59"/>
       <c r="BB29" s="59"/>
       <c r="BC29" s="59"/>
       <c r="BD29" s="59"/>
-      <c r="BE29" s="162"/>
-    </row>
-    <row r="30" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE29" s="111"/>
+    </row>
+    <row r="30" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="164"/>
+      <c r="B30" s="113"/>
       <c r="C30" s="35"/>
       <c r="D30" s="56" t="s">
         <v>88</v>
@@ -4713,8 +4713,8 @@
         <v>89</v>
       </c>
       <c r="K30" s="59"/>
-      <c r="L30" s="169"/>
-      <c r="M30" s="145"/>
+      <c r="L30" s="118"/>
+      <c r="M30" s="129"/>
       <c r="N30" s="58" t="str">
         <f t="shared" si="0"/>
         <v>Kikozu</v>
@@ -4723,7 +4723,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="P30" s="132"/>
+      <c r="P30" s="124"/>
       <c r="Q30" s="11" t="str" cm="1">
         <f t="array" ref="Q30">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B10))),"-")</f>
         <v>Charasime</v>
@@ -4731,7 +4731,7 @@
       <c r="R30" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="S30" s="135"/>
+      <c r="S30" s="126"/>
       <c r="T30" s="59"/>
       <c r="U30" s="59"/>
       <c r="V30" s="80"/>
@@ -4750,9 +4750,9 @@
       <c r="AI30" s="59"/>
       <c r="AJ30" s="59"/>
       <c r="AK30" s="59"/>
-      <c r="AL30" s="166"/>
+      <c r="AL30" s="115"/>
       <c r="AM30" s="59"/>
-      <c r="AN30" s="135"/>
+      <c r="AN30" s="126"/>
       <c r="AO30" s="3" t="s">
         <v>32</v>
       </c>
@@ -4765,19 +4765,19 @@
       <c r="AR30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AS30" s="135"/>
+      <c r="AS30" s="126"/>
       <c r="AT30" s="33"/>
       <c r="BA30" s="59"/>
       <c r="BB30" s="59"/>
       <c r="BC30" s="59"/>
       <c r="BD30" s="59"/>
-      <c r="BE30" s="162"/>
-    </row>
-    <row r="31" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE30" s="111"/>
+    </row>
+    <row r="31" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="164"/>
+      <c r="B31" s="113"/>
       <c r="C31" s="35"/>
       <c r="D31" s="56" t="s">
         <v>91</v>
@@ -4798,8 +4798,8 @@
         <v>89</v>
       </c>
       <c r="K31" s="82"/>
-      <c r="L31" s="169"/>
-      <c r="M31" s="145"/>
+      <c r="L31" s="118"/>
+      <c r="M31" s="129"/>
       <c r="N31" s="58" t="str">
         <f t="shared" si="0"/>
         <v>Priski</v>
@@ -4808,7 +4808,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="P31" s="132"/>
+      <c r="P31" s="124"/>
       <c r="Q31" s="11" t="str" cm="1">
         <f t="array" ref="Q31">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B16))),"-")</f>
         <v>SuperHulk2005</v>
@@ -4816,7 +4816,7 @@
       <c r="R31" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="S31" s="135"/>
+      <c r="S31" s="126"/>
       <c r="T31" s="59"/>
       <c r="U31" s="59"/>
       <c r="V31" s="80"/>
@@ -4835,10 +4835,10 @@
       <c r="AI31" s="59"/>
       <c r="AJ31" s="59"/>
       <c r="AK31" s="59"/>
-      <c r="AL31" s="166"/>
+      <c r="AL31" s="115"/>
       <c r="AM31" s="59"/>
-      <c r="AN31" s="135"/>
-      <c r="AO31" s="131" t="s">
+      <c r="AN31" s="126"/>
+      <c r="AO31" s="123" t="s">
         <v>93</v>
       </c>
       <c r="AP31" s="16" t="str">
@@ -4851,19 +4851,19 @@
       <c r="AR31" s="40">
         <v>76</v>
       </c>
-      <c r="AS31" s="145"/>
+      <c r="AS31" s="129"/>
       <c r="AT31" s="33"/>
       <c r="BA31" s="59"/>
       <c r="BB31" s="59"/>
       <c r="BC31" s="59"/>
       <c r="BD31" s="59"/>
-      <c r="BE31" s="162"/>
-    </row>
-    <row r="32" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE31" s="111"/>
+    </row>
+    <row r="32" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="164"/>
+      <c r="B32" s="113"/>
       <c r="C32" s="35"/>
       <c r="D32" s="56" t="s">
         <v>59</v>
@@ -4884,8 +4884,8 @@
         <v>89</v>
       </c>
       <c r="K32" s="82"/>
-      <c r="L32" s="169"/>
-      <c r="M32" s="145"/>
+      <c r="L32" s="118"/>
+      <c r="M32" s="129"/>
       <c r="N32" s="58" t="str">
         <f t="shared" si="0"/>
         <v>SuperHulk2005</v>
@@ -4894,7 +4894,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="P32" s="133"/>
+      <c r="P32" s="150"/>
       <c r="Q32" s="12" t="str" cm="1">
         <f t="array" ref="Q32">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B22))),"-")</f>
         <v>Liso</v>
@@ -4902,7 +4902,7 @@
       <c r="R32" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="S32" s="135"/>
+      <c r="S32" s="126"/>
       <c r="T32" s="59"/>
       <c r="U32" s="59"/>
       <c r="V32" s="80"/>
@@ -4921,10 +4921,10 @@
       <c r="AI32" s="59"/>
       <c r="AJ32" s="59"/>
       <c r="AK32" s="59"/>
-      <c r="AL32" s="166"/>
+      <c r="AL32" s="115"/>
       <c r="AM32" s="59"/>
-      <c r="AN32" s="135"/>
-      <c r="AO32" s="132"/>
+      <c r="AN32" s="126"/>
+      <c r="AO32" s="124"/>
       <c r="AP32" s="17" t="str">
         <f>IF(ISBLANK($AJ$58),"LF4",$AJ$58)</f>
         <v>Batefimbi</v>
@@ -4935,19 +4935,19 @@
       <c r="AR32" s="41">
         <v>75</v>
       </c>
-      <c r="AS32" s="145"/>
+      <c r="AS32" s="129"/>
       <c r="AT32" s="33"/>
       <c r="BA32" s="59"/>
       <c r="BB32" s="59"/>
       <c r="BC32" s="59"/>
       <c r="BD32" s="59"/>
-      <c r="BE32" s="162"/>
-    </row>
-    <row r="33" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE32" s="111"/>
+    </row>
+    <row r="33" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="164"/>
+      <c r="B33" s="113"/>
       <c r="C33" s="35"/>
       <c r="D33" s="56" t="s">
         <v>57</v>
@@ -4968,8 +4968,8 @@
         <v>96</v>
       </c>
       <c r="K33" s="82"/>
-      <c r="L33" s="169"/>
-      <c r="M33" s="145"/>
+      <c r="L33" s="118"/>
+      <c r="M33" s="129"/>
       <c r="N33" s="58" t="str">
         <f t="shared" si="0"/>
         <v>Groluche</v>
@@ -4978,7 +4978,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="P33" s="131" t="s">
+      <c r="P33" s="123" t="s">
         <v>97</v>
       </c>
       <c r="Q33" s="10" t="str" cm="1">
@@ -4988,7 +4988,7 @@
       <c r="R33" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="S33" s="135"/>
+      <c r="S33" s="126"/>
       <c r="T33" s="59"/>
       <c r="U33" s="59"/>
       <c r="V33" s="59"/>
@@ -5007,10 +5007,10 @@
       <c r="AI33" s="59"/>
       <c r="AJ33" s="59"/>
       <c r="AK33" s="59"/>
-      <c r="AL33" s="166"/>
+      <c r="AL33" s="115"/>
       <c r="AM33" s="59"/>
-      <c r="AN33" s="135"/>
-      <c r="AO33" s="132"/>
+      <c r="AN33" s="126"/>
+      <c r="AO33" s="124"/>
       <c r="AP33" s="17" t="str">
         <f>IF(ISBLANK($AD$56),"R2",$AD$56)</f>
         <v>Groluche</v>
@@ -5021,19 +5021,19 @@
       <c r="AR33" s="42">
         <v>60</v>
       </c>
-      <c r="AS33" s="145"/>
+      <c r="AS33" s="129"/>
       <c r="AT33" s="33"/>
       <c r="BA33" s="59"/>
       <c r="BB33" s="59"/>
       <c r="BC33" s="59"/>
       <c r="BD33" s="59"/>
-      <c r="BE33" s="162"/>
-    </row>
-    <row r="34" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE33" s="111"/>
+    </row>
+    <row r="34" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="164"/>
+      <c r="B34" s="113"/>
       <c r="C34" s="35"/>
       <c r="D34" s="56" t="s">
         <v>72</v>
@@ -5054,8 +5054,8 @@
         <v>96</v>
       </c>
       <c r="K34" s="82"/>
-      <c r="L34" s="169"/>
-      <c r="M34" s="145"/>
+      <c r="L34" s="118"/>
+      <c r="M34" s="129"/>
       <c r="N34" s="58" t="str">
         <f t="shared" si="0"/>
         <v>AksL</v>
@@ -5064,7 +5064,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="P34" s="132"/>
+      <c r="P34" s="124"/>
       <c r="Q34" s="11" t="str" cm="1">
         <f t="array" ref="Q34">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B11))),"-")</f>
         <v>ioupy</v>
@@ -5072,7 +5072,7 @@
       <c r="R34" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="S34" s="135"/>
+      <c r="S34" s="126"/>
       <c r="T34" s="59"/>
       <c r="U34" s="59"/>
       <c r="V34" s="59"/>
@@ -5091,10 +5091,10 @@
       <c r="AI34" s="59"/>
       <c r="AJ34" s="59"/>
       <c r="AK34" s="59"/>
-      <c r="AL34" s="166"/>
+      <c r="AL34" s="115"/>
       <c r="AM34" s="59"/>
-      <c r="AN34" s="136"/>
-      <c r="AO34" s="133"/>
+      <c r="AN34" s="127"/>
+      <c r="AO34" s="150"/>
       <c r="AP34" s="18" t="str">
         <f>IF(ISBLANK($AD$60),"S2",$AD$60)</f>
         <v>Kabag</v>
@@ -5105,19 +5105,19 @@
       <c r="AR34" s="13">
         <v>56</v>
       </c>
-      <c r="AS34" s="157"/>
+      <c r="AS34" s="130"/>
       <c r="AT34" s="33"/>
       <c r="BA34" s="59"/>
       <c r="BB34" s="59"/>
       <c r="BC34" s="59"/>
       <c r="BD34" s="59"/>
-      <c r="BE34" s="162"/>
-    </row>
-    <row r="35" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE34" s="111"/>
+    </row>
+    <row r="35" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="164"/>
+      <c r="B35" s="113"/>
       <c r="C35" s="35"/>
       <c r="D35" s="56" t="s">
         <v>84</v>
@@ -5138,8 +5138,8 @@
         <v>96</v>
       </c>
       <c r="K35" s="82"/>
-      <c r="L35" s="169"/>
-      <c r="M35" s="145"/>
+      <c r="L35" s="118"/>
+      <c r="M35" s="129"/>
       <c r="N35" s="58" t="str">
         <f t="shared" si="0"/>
         <v>KevLeBoss</v>
@@ -5148,7 +5148,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="P35" s="132"/>
+      <c r="P35" s="124"/>
       <c r="Q35" s="11" t="str" cm="1">
         <f t="array" ref="Q35">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B17))),"-")</f>
         <v>Groluche</v>
@@ -5156,7 +5156,7 @@
       <c r="R35" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="S35" s="135"/>
+      <c r="S35" s="126"/>
       <c r="T35" s="83"/>
       <c r="U35" s="83"/>
       <c r="V35" s="83"/>
@@ -5175,26 +5175,26 @@
       <c r="AI35" s="59"/>
       <c r="AJ35" s="59"/>
       <c r="AK35" s="59"/>
-      <c r="AL35" s="166"/>
+      <c r="AL35" s="115"/>
       <c r="AM35" s="59"/>
-      <c r="AN35" s="128"/>
-      <c r="AO35" s="129"/>
-      <c r="AP35" s="142"/>
-      <c r="AQ35" s="142"/>
-      <c r="AR35" s="142"/>
-      <c r="AS35" s="130"/>
+      <c r="AN35" s="122"/>
+      <c r="AO35" s="120"/>
+      <c r="AP35" s="151"/>
+      <c r="AQ35" s="151"/>
+      <c r="AR35" s="151"/>
+      <c r="AS35" s="121"/>
       <c r="AT35" s="33"/>
       <c r="BA35" s="59"/>
       <c r="BB35" s="59"/>
       <c r="BC35" s="59"/>
       <c r="BD35" s="59"/>
-      <c r="BE35" s="162"/>
-    </row>
-    <row r="36" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE35" s="111"/>
+    </row>
+    <row r="36" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="B36" s="164"/>
+      <c r="B36" s="113"/>
       <c r="C36" s="35"/>
       <c r="D36" s="56" t="s">
         <v>92</v>
@@ -5215,8 +5215,8 @@
         <v>101</v>
       </c>
       <c r="K36" s="82"/>
-      <c r="L36" s="169"/>
-      <c r="M36" s="145"/>
+      <c r="L36" s="118"/>
+      <c r="M36" s="129"/>
       <c r="N36" s="58" t="str">
         <f t="shared" si="0"/>
         <v>Gagou</v>
@@ -5225,7 +5225,7 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="P36" s="133"/>
+      <c r="P36" s="150"/>
       <c r="Q36" s="12" t="str" cm="1">
         <f t="array" ref="Q36">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B23))),"-")</f>
         <v>Leas</v>
@@ -5233,7 +5233,7 @@
       <c r="R36" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="S36" s="135"/>
+      <c r="S36" s="126"/>
       <c r="T36" s="59"/>
       <c r="U36" s="59"/>
       <c r="V36" s="59"/>
@@ -5252,7 +5252,7 @@
       <c r="AI36" s="59"/>
       <c r="AJ36" s="59"/>
       <c r="AK36" s="59"/>
-      <c r="AL36" s="166"/>
+      <c r="AL36" s="115"/>
       <c r="AM36" s="59"/>
       <c r="AN36" s="59"/>
       <c r="AO36" s="59"/>
@@ -5271,13 +5271,13 @@
       <c r="BB36" s="59"/>
       <c r="BC36" s="59"/>
       <c r="BD36" s="59"/>
-      <c r="BE36" s="162"/>
-    </row>
-    <row r="37" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE36" s="111"/>
+    </row>
+    <row r="37" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="B37" s="164"/>
+      <c r="B37" s="113"/>
       <c r="C37" s="35"/>
       <c r="D37" s="56" t="s">
         <v>102</v>
@@ -5298,8 +5298,8 @@
         <v>101</v>
       </c>
       <c r="K37" s="82"/>
-      <c r="L37" s="169"/>
-      <c r="M37" s="145"/>
+      <c r="L37" s="118"/>
+      <c r="M37" s="129"/>
       <c r="N37" s="58" t="str">
         <f t="shared" si="0"/>
         <v>Zoz</v>
@@ -5308,7 +5308,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="P37" s="131" t="s">
+      <c r="P37" s="123" t="s">
         <v>104</v>
       </c>
       <c r="Q37" s="10" t="str" cm="1">
@@ -5318,7 +5318,7 @@
       <c r="R37" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="S37" s="135"/>
+      <c r="S37" s="126"/>
       <c r="T37" s="59"/>
       <c r="U37" s="59"/>
       <c r="V37" s="59"/>
@@ -5337,7 +5337,7 @@
       <c r="AI37" s="59"/>
       <c r="AJ37" s="59"/>
       <c r="AK37" s="59"/>
-      <c r="AL37" s="166"/>
+      <c r="AL37" s="115"/>
       <c r="AM37" s="59"/>
       <c r="AN37" s="59"/>
       <c r="AO37" s="59"/>
@@ -5356,13 +5356,13 @@
       <c r="BB37" s="59"/>
       <c r="BC37" s="59"/>
       <c r="BD37" s="59"/>
-      <c r="BE37" s="162"/>
-    </row>
-    <row r="38" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE37" s="111"/>
+    </row>
+    <row r="38" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="164"/>
+      <c r="B38" s="113"/>
       <c r="C38" s="35"/>
       <c r="D38" s="57" t="s">
         <v>106</v>
@@ -5383,8 +5383,8 @@
         <v>101</v>
       </c>
       <c r="K38" s="82"/>
-      <c r="L38" s="169"/>
-      <c r="M38" s="145"/>
+      <c r="L38" s="118"/>
+      <c r="M38" s="129"/>
       <c r="N38" s="58" t="str">
         <f t="shared" si="0"/>
         <v>Liso</v>
@@ -5393,7 +5393,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="P38" s="132"/>
+      <c r="P38" s="124"/>
       <c r="Q38" s="11" t="str" cm="1">
         <f t="array" ref="Q38">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B12))),"-")</f>
         <v>Aibelle</v>
@@ -5401,7 +5401,7 @@
       <c r="R38" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="S38" s="135"/>
+      <c r="S38" s="126"/>
       <c r="T38" s="59"/>
       <c r="U38" s="59"/>
       <c r="V38" s="59"/>
@@ -5420,7 +5420,7 @@
       <c r="AI38" s="59"/>
       <c r="AJ38" s="62"/>
       <c r="AK38" s="59"/>
-      <c r="AL38" s="166"/>
+      <c r="AL38" s="115"/>
       <c r="AM38" s="59"/>
       <c r="AN38" s="59"/>
       <c r="AO38" s="59"/>
@@ -5439,13 +5439,13 @@
       <c r="BB38" s="59"/>
       <c r="BC38" s="59"/>
       <c r="BD38" s="59"/>
-      <c r="BE38" s="162"/>
-    </row>
-    <row r="39" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE38" s="111"/>
+    </row>
+    <row r="39" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="B39" s="164"/>
+      <c r="B39" s="113"/>
       <c r="C39" s="35"/>
       <c r="D39" s="84"/>
       <c r="E39" s="61"/>
@@ -5455,8 +5455,8 @@
       <c r="I39" s="61"/>
       <c r="J39" s="61"/>
       <c r="K39" s="82"/>
-      <c r="L39" s="169"/>
-      <c r="M39" s="145"/>
+      <c r="L39" s="118"/>
+      <c r="M39" s="129"/>
       <c r="N39" s="58" t="str">
         <f t="shared" si="0"/>
         <v>Leas</v>
@@ -5465,7 +5465,7 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="P39" s="132"/>
+      <c r="P39" s="124"/>
       <c r="Q39" s="11" t="str" cm="1">
         <f t="array" ref="Q39">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B18))),"-")</f>
         <v>AksL</v>
@@ -5473,7 +5473,7 @@
       <c r="R39" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S39" s="135"/>
+      <c r="S39" s="126"/>
       <c r="T39" s="59"/>
       <c r="U39" s="59"/>
       <c r="V39" s="59"/>
@@ -5492,7 +5492,7 @@
       <c r="AI39" s="59"/>
       <c r="AJ39" s="59"/>
       <c r="AK39" s="59"/>
-      <c r="AL39" s="166"/>
+      <c r="AL39" s="115"/>
       <c r="AM39" s="59"/>
       <c r="AN39" s="59"/>
       <c r="AO39" s="59"/>
@@ -5511,13 +5511,13 @@
       <c r="BB39" s="59"/>
       <c r="BC39" s="59"/>
       <c r="BD39" s="59"/>
-      <c r="BE39" s="162"/>
-    </row>
-    <row r="40" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE39" s="111"/>
+    </row>
+    <row r="40" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="164"/>
+      <c r="B40" s="113"/>
       <c r="C40" s="35"/>
       <c r="D40" s="84"/>
       <c r="E40" s="61"/>
@@ -5527,8 +5527,8 @@
       <c r="I40" s="61"/>
       <c r="J40" s="61"/>
       <c r="K40" s="82"/>
-      <c r="L40" s="169"/>
-      <c r="M40" s="145"/>
+      <c r="L40" s="118"/>
+      <c r="M40" s="129"/>
       <c r="N40" s="58" t="str">
         <f t="shared" si="0"/>
         <v>el ombre luna</v>
@@ -5537,7 +5537,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="P40" s="132"/>
+      <c r="P40" s="124"/>
       <c r="Q40" s="12" t="str" cm="1">
         <f t="array" ref="Q40">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B24))),"-")</f>
         <v>el ombre luna</v>
@@ -5545,7 +5545,7 @@
       <c r="R40" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="S40" s="135"/>
+      <c r="S40" s="126"/>
       <c r="T40" s="59"/>
       <c r="U40" s="59"/>
       <c r="V40" s="59"/>
@@ -5564,7 +5564,7 @@
       <c r="AI40" s="59"/>
       <c r="AJ40" s="59"/>
       <c r="AK40" s="59"/>
-      <c r="AL40" s="166"/>
+      <c r="AL40" s="115"/>
       <c r="AM40" s="59"/>
       <c r="AN40" s="59"/>
       <c r="AO40" s="59"/>
@@ -5583,13 +5583,13 @@
       <c r="BB40" s="59"/>
       <c r="BC40" s="59"/>
       <c r="BD40" s="59"/>
-      <c r="BE40" s="162"/>
-    </row>
-    <row r="41" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE40" s="111"/>
+    </row>
+    <row r="41" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="164"/>
+      <c r="B41" s="113"/>
       <c r="C41" s="35"/>
       <c r="D41" s="84"/>
       <c r="E41" s="61"/>
@@ -5599,14 +5599,14 @@
       <c r="I41" s="61"/>
       <c r="J41" s="61"/>
       <c r="K41" s="82"/>
-      <c r="L41" s="169"/>
-      <c r="M41" s="129"/>
-      <c r="N41" s="129"/>
-      <c r="O41" s="129"/>
-      <c r="P41" s="129"/>
-      <c r="Q41" s="142"/>
-      <c r="R41" s="129"/>
-      <c r="S41" s="130"/>
+      <c r="L41" s="118"/>
+      <c r="M41" s="120"/>
+      <c r="N41" s="120"/>
+      <c r="O41" s="120"/>
+      <c r="P41" s="120"/>
+      <c r="Q41" s="151"/>
+      <c r="R41" s="120"/>
+      <c r="S41" s="121"/>
       <c r="T41" s="59"/>
       <c r="U41" s="59"/>
       <c r="V41" s="59"/>
@@ -5625,7 +5625,7 @@
       <c r="AI41" s="59"/>
       <c r="AJ41" s="59"/>
       <c r="AK41" s="59"/>
-      <c r="AL41" s="166"/>
+      <c r="AL41" s="115"/>
       <c r="AM41" s="59"/>
       <c r="AN41" s="59"/>
       <c r="AO41" s="59"/>
@@ -5644,13 +5644,13 @@
       <c r="BB41" s="59"/>
       <c r="BC41" s="59"/>
       <c r="BD41" s="59"/>
-      <c r="BE41" s="162"/>
-    </row>
-    <row r="42" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE41" s="111"/>
+    </row>
+    <row r="42" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="B42" s="164"/>
+      <c r="B42" s="113"/>
       <c r="C42" s="35"/>
       <c r="D42" s="84"/>
       <c r="E42" s="61"/>
@@ -5660,7 +5660,7 @@
       <c r="I42" s="61"/>
       <c r="J42" s="61"/>
       <c r="K42" s="82"/>
-      <c r="L42" s="169"/>
+      <c r="L42" s="118"/>
       <c r="M42" s="59"/>
       <c r="N42" s="59"/>
       <c r="O42" s="59"/>
@@ -5686,7 +5686,7 @@
       <c r="AI42" s="59"/>
       <c r="AJ42" s="59"/>
       <c r="AK42" s="59"/>
-      <c r="AL42" s="166"/>
+      <c r="AL42" s="115"/>
       <c r="AM42" s="59"/>
       <c r="AN42" s="59"/>
       <c r="AO42" s="59"/>
@@ -5705,13 +5705,13 @@
       <c r="BB42" s="59"/>
       <c r="BC42" s="59"/>
       <c r="BD42" s="59"/>
-      <c r="BE42" s="162"/>
-    </row>
-    <row r="43" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE42" s="111"/>
+    </row>
+    <row r="43" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="164"/>
+      <c r="B43" s="113"/>
       <c r="C43" s="35"/>
       <c r="D43" s="84"/>
       <c r="E43" s="61"/>
@@ -5721,7 +5721,7 @@
       <c r="I43" s="61"/>
       <c r="J43" s="61"/>
       <c r="K43" s="82"/>
-      <c r="L43" s="169"/>
+      <c r="L43" s="118"/>
       <c r="M43" s="59"/>
       <c r="N43" s="59"/>
       <c r="O43" s="59"/>
@@ -5747,7 +5747,7 @@
       <c r="AI43" s="59"/>
       <c r="AJ43" s="59"/>
       <c r="AK43" s="59"/>
-      <c r="AL43" s="166"/>
+      <c r="AL43" s="115"/>
       <c r="AM43" s="59"/>
       <c r="AN43" s="59"/>
       <c r="AO43" s="59"/>
@@ -5766,13 +5766,13 @@
       <c r="BB43" s="59"/>
       <c r="BC43" s="59"/>
       <c r="BD43" s="59"/>
-      <c r="BE43" s="162"/>
-    </row>
-    <row r="44" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE43" s="111"/>
+    </row>
+    <row r="44" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="B44" s="164"/>
+      <c r="B44" s="113"/>
       <c r="C44" s="35"/>
       <c r="D44" s="84"/>
       <c r="E44" s="61"/>
@@ -5782,35 +5782,35 @@
       <c r="I44" s="61"/>
       <c r="J44" s="61"/>
       <c r="K44" s="82"/>
-      <c r="L44" s="169"/>
-      <c r="M44" s="152" t="s">
+      <c r="L44" s="118"/>
+      <c r="M44" s="161" t="s">
         <v>113</v>
       </c>
-      <c r="N44" s="152"/>
-      <c r="O44" s="152"/>
-      <c r="P44" s="152"/>
-      <c r="Q44" s="152"/>
-      <c r="R44" s="152"/>
-      <c r="S44" s="152"/>
-      <c r="T44" s="152"/>
-      <c r="U44" s="152"/>
-      <c r="V44" s="152"/>
-      <c r="W44" s="152"/>
-      <c r="X44" s="152"/>
-      <c r="Y44" s="152"/>
-      <c r="Z44" s="152"/>
-      <c r="AA44" s="152"/>
-      <c r="AB44" s="152"/>
-      <c r="AC44" s="152"/>
-      <c r="AD44" s="152"/>
-      <c r="AE44" s="152"/>
-      <c r="AF44" s="152"/>
-      <c r="AG44" s="152"/>
-      <c r="AH44" s="152"/>
-      <c r="AI44" s="152"/>
-      <c r="AJ44" s="152"/>
-      <c r="AK44" s="152"/>
-      <c r="AL44" s="166"/>
+      <c r="N44" s="161"/>
+      <c r="O44" s="161"/>
+      <c r="P44" s="161"/>
+      <c r="Q44" s="161"/>
+      <c r="R44" s="161"/>
+      <c r="S44" s="161"/>
+      <c r="T44" s="161"/>
+      <c r="U44" s="161"/>
+      <c r="V44" s="161"/>
+      <c r="W44" s="161"/>
+      <c r="X44" s="161"/>
+      <c r="Y44" s="161"/>
+      <c r="Z44" s="161"/>
+      <c r="AA44" s="161"/>
+      <c r="AB44" s="161"/>
+      <c r="AC44" s="161"/>
+      <c r="AD44" s="161"/>
+      <c r="AE44" s="161"/>
+      <c r="AF44" s="161"/>
+      <c r="AG44" s="161"/>
+      <c r="AH44" s="161"/>
+      <c r="AI44" s="161"/>
+      <c r="AJ44" s="161"/>
+      <c r="AK44" s="161"/>
+      <c r="AL44" s="115"/>
       <c r="AM44" s="59"/>
       <c r="AN44" s="59"/>
       <c r="AO44" s="59"/>
@@ -5829,13 +5829,13 @@
       <c r="BB44" s="59"/>
       <c r="BC44" s="59"/>
       <c r="BD44" s="59"/>
-      <c r="BE44" s="162"/>
-    </row>
-    <row r="45" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE44" s="111"/>
+    </row>
+    <row r="45" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="B45" s="164"/>
+      <c r="B45" s="113"/>
       <c r="C45" s="35"/>
       <c r="D45" s="84"/>
       <c r="E45" s="61"/>
@@ -5845,33 +5845,33 @@
       <c r="I45" s="61"/>
       <c r="J45" s="61"/>
       <c r="K45" s="82"/>
-      <c r="L45" s="169"/>
-      <c r="M45" s="153"/>
-      <c r="N45" s="153"/>
-      <c r="O45" s="153"/>
-      <c r="P45" s="153"/>
-      <c r="Q45" s="153"/>
-      <c r="R45" s="153"/>
-      <c r="S45" s="153"/>
-      <c r="T45" s="153"/>
-      <c r="U45" s="153"/>
-      <c r="V45" s="153"/>
-      <c r="W45" s="153"/>
-      <c r="X45" s="153"/>
-      <c r="Y45" s="153"/>
-      <c r="Z45" s="153"/>
-      <c r="AA45" s="153"/>
-      <c r="AB45" s="153"/>
-      <c r="AC45" s="153"/>
-      <c r="AD45" s="153"/>
-      <c r="AE45" s="153"/>
-      <c r="AF45" s="153"/>
-      <c r="AG45" s="153"/>
-      <c r="AH45" s="153"/>
-      <c r="AI45" s="153"/>
-      <c r="AJ45" s="153"/>
-      <c r="AK45" s="153"/>
-      <c r="AL45" s="166"/>
+      <c r="L45" s="118"/>
+      <c r="M45" s="162"/>
+      <c r="N45" s="162"/>
+      <c r="O45" s="162"/>
+      <c r="P45" s="162"/>
+      <c r="Q45" s="162"/>
+      <c r="R45" s="162"/>
+      <c r="S45" s="162"/>
+      <c r="T45" s="162"/>
+      <c r="U45" s="162"/>
+      <c r="V45" s="162"/>
+      <c r="W45" s="162"/>
+      <c r="X45" s="162"/>
+      <c r="Y45" s="162"/>
+      <c r="Z45" s="162"/>
+      <c r="AA45" s="162"/>
+      <c r="AB45" s="162"/>
+      <c r="AC45" s="162"/>
+      <c r="AD45" s="162"/>
+      <c r="AE45" s="162"/>
+      <c r="AF45" s="162"/>
+      <c r="AG45" s="162"/>
+      <c r="AH45" s="162"/>
+      <c r="AI45" s="162"/>
+      <c r="AJ45" s="162"/>
+      <c r="AK45" s="162"/>
+      <c r="AL45" s="115"/>
       <c r="AM45" s="59"/>
       <c r="AN45" s="59"/>
       <c r="AO45" s="59"/>
@@ -5890,13 +5890,13 @@
       <c r="BB45" s="59"/>
       <c r="BC45" s="59"/>
       <c r="BD45" s="59"/>
-      <c r="BE45" s="162"/>
-    </row>
-    <row r="46" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE45" s="111"/>
+    </row>
+    <row r="46" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="164"/>
+      <c r="B46" s="113"/>
       <c r="C46" s="35"/>
       <c r="D46" s="84"/>
       <c r="E46" s="61"/>
@@ -5906,33 +5906,33 @@
       <c r="I46" s="61"/>
       <c r="J46" s="61"/>
       <c r="K46" s="82"/>
-      <c r="L46" s="169"/>
-      <c r="M46" s="154"/>
-      <c r="N46" s="154"/>
-      <c r="O46" s="154"/>
-      <c r="P46" s="154"/>
-      <c r="Q46" s="154"/>
-      <c r="R46" s="154"/>
-      <c r="S46" s="154"/>
-      <c r="T46" s="154"/>
-      <c r="U46" s="154"/>
-      <c r="V46" s="154"/>
-      <c r="W46" s="154"/>
-      <c r="X46" s="154"/>
-      <c r="Y46" s="154"/>
-      <c r="Z46" s="154"/>
-      <c r="AA46" s="154"/>
-      <c r="AB46" s="154"/>
-      <c r="AC46" s="154"/>
-      <c r="AD46" s="154"/>
-      <c r="AE46" s="154"/>
-      <c r="AF46" s="154"/>
-      <c r="AG46" s="154"/>
-      <c r="AH46" s="154"/>
-      <c r="AI46" s="154"/>
-      <c r="AJ46" s="154"/>
-      <c r="AK46" s="154"/>
-      <c r="AL46" s="166"/>
+      <c r="L46" s="118"/>
+      <c r="M46" s="163"/>
+      <c r="N46" s="163"/>
+      <c r="O46" s="163"/>
+      <c r="P46" s="163"/>
+      <c r="Q46" s="163"/>
+      <c r="R46" s="163"/>
+      <c r="S46" s="163"/>
+      <c r="T46" s="163"/>
+      <c r="U46" s="163"/>
+      <c r="V46" s="163"/>
+      <c r="W46" s="163"/>
+      <c r="X46" s="163"/>
+      <c r="Y46" s="163"/>
+      <c r="Z46" s="163"/>
+      <c r="AA46" s="163"/>
+      <c r="AB46" s="163"/>
+      <c r="AC46" s="163"/>
+      <c r="AD46" s="163"/>
+      <c r="AE46" s="163"/>
+      <c r="AF46" s="163"/>
+      <c r="AG46" s="163"/>
+      <c r="AH46" s="163"/>
+      <c r="AI46" s="163"/>
+      <c r="AJ46" s="163"/>
+      <c r="AK46" s="163"/>
+      <c r="AL46" s="115"/>
       <c r="AM46" s="59"/>
       <c r="AN46" s="59"/>
       <c r="AO46" s="59"/>
@@ -5951,13 +5951,13 @@
       <c r="BB46" s="59"/>
       <c r="BC46" s="59"/>
       <c r="BD46" s="59"/>
-      <c r="BE46" s="162"/>
-    </row>
-    <row r="47" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE46" s="111"/>
+    </row>
+    <row r="47" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="164"/>
+      <c r="B47" s="113"/>
       <c r="C47" s="35"/>
       <c r="D47" s="84"/>
       <c r="E47" s="61"/>
@@ -5967,7 +5967,7 @@
       <c r="I47" s="61"/>
       <c r="J47" s="61"/>
       <c r="K47" s="82"/>
-      <c r="L47" s="169"/>
+      <c r="L47" s="118"/>
       <c r="M47" s="59"/>
       <c r="N47" s="59"/>
       <c r="O47" s="59"/>
@@ -5993,7 +5993,7 @@
       <c r="AI47" s="59"/>
       <c r="AJ47" s="59"/>
       <c r="AK47" s="59"/>
-      <c r="AL47" s="166"/>
+      <c r="AL47" s="115"/>
       <c r="AM47" s="59"/>
       <c r="AN47" s="59"/>
       <c r="AO47" s="59"/>
@@ -6012,13 +6012,13 @@
       <c r="BB47" s="59"/>
       <c r="BC47" s="59"/>
       <c r="BD47" s="59"/>
-      <c r="BE47" s="162"/>
-    </row>
-    <row r="48" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE47" s="111"/>
+    </row>
+    <row r="48" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="B48" s="164"/>
+      <c r="B48" s="113"/>
       <c r="C48" s="35"/>
       <c r="D48" s="84"/>
       <c r="E48" s="61"/>
@@ -6028,7 +6028,7 @@
       <c r="I48" s="61"/>
       <c r="J48" s="61"/>
       <c r="K48" s="82"/>
-      <c r="L48" s="169"/>
+      <c r="L48" s="118"/>
       <c r="M48" s="59"/>
       <c r="N48" s="59"/>
       <c r="O48" s="59"/>
@@ -6054,7 +6054,7 @@
       <c r="AI48" s="59"/>
       <c r="AJ48" s="59"/>
       <c r="AK48" s="59"/>
-      <c r="AL48" s="166"/>
+      <c r="AL48" s="115"/>
       <c r="AM48" s="59"/>
       <c r="AN48" s="59"/>
       <c r="AO48" s="59"/>
@@ -6073,13 +6073,13 @@
       <c r="BB48" s="59"/>
       <c r="BC48" s="59"/>
       <c r="BD48" s="59"/>
-      <c r="BE48" s="162"/>
-    </row>
-    <row r="49" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE48" s="111"/>
+    </row>
+    <row r="49" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="164"/>
+      <c r="B49" s="113"/>
       <c r="C49" s="35"/>
       <c r="D49" s="84"/>
       <c r="E49" s="61"/>
@@ -6089,41 +6089,41 @@
       <c r="I49" s="61"/>
       <c r="J49" s="61"/>
       <c r="K49" s="82"/>
-      <c r="L49" s="169"/>
-      <c r="M49" s="120" t="s">
+      <c r="L49" s="118"/>
+      <c r="M49" s="132" t="s">
         <v>119</v>
       </c>
-      <c r="N49" s="120"/>
-      <c r="O49" s="120"/>
-      <c r="P49" s="120"/>
-      <c r="Q49" s="120"/>
-      <c r="R49" s="120"/>
-      <c r="S49" s="121"/>
+      <c r="N49" s="132"/>
+      <c r="O49" s="132"/>
+      <c r="P49" s="132"/>
+      <c r="Q49" s="132"/>
+      <c r="R49" s="132"/>
+      <c r="S49" s="158"/>
       <c r="T49" s="79"/>
-      <c r="U49" s="119" t="s">
+      <c r="U49" s="131" t="s">
         <v>120</v>
       </c>
-      <c r="V49" s="120"/>
-      <c r="W49" s="120"/>
-      <c r="X49" s="120"/>
-      <c r="Y49" s="121"/>
+      <c r="V49" s="132"/>
+      <c r="W49" s="132"/>
+      <c r="X49" s="132"/>
+      <c r="Y49" s="158"/>
       <c r="Z49" s="79"/>
-      <c r="AA49" s="119" t="s">
+      <c r="AA49" s="131" t="s">
         <v>121</v>
       </c>
-      <c r="AB49" s="120"/>
-      <c r="AC49" s="120"/>
-      <c r="AD49" s="120"/>
-      <c r="AE49" s="121"/>
+      <c r="AB49" s="132"/>
+      <c r="AC49" s="132"/>
+      <c r="AD49" s="132"/>
+      <c r="AE49" s="158"/>
       <c r="AF49" s="59"/>
-      <c r="AG49" s="119" t="s">
+      <c r="AG49" s="131" t="s">
         <v>122</v>
       </c>
-      <c r="AH49" s="120"/>
-      <c r="AI49" s="120"/>
-      <c r="AJ49" s="120"/>
-      <c r="AK49" s="120"/>
-      <c r="AL49" s="166"/>
+      <c r="AH49" s="132"/>
+      <c r="AI49" s="132"/>
+      <c r="AJ49" s="132"/>
+      <c r="AK49" s="132"/>
+      <c r="AL49" s="115"/>
       <c r="AM49" s="59"/>
       <c r="AN49" s="59"/>
       <c r="AO49" s="59"/>
@@ -6142,13 +6142,13 @@
       <c r="BB49" s="59"/>
       <c r="BC49" s="59"/>
       <c r="BD49" s="59"/>
-      <c r="BE49" s="162"/>
-    </row>
-    <row r="50" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE49" s="111"/>
+    </row>
+    <row r="50" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="B50" s="164"/>
+      <c r="B50" s="113"/>
       <c r="C50" s="34"/>
       <c r="D50" s="59"/>
       <c r="E50" s="60"/>
@@ -6158,33 +6158,33 @@
       <c r="I50" s="61"/>
       <c r="J50" s="61"/>
       <c r="K50" s="59"/>
-      <c r="L50" s="169"/>
-      <c r="M50" s="123"/>
-      <c r="N50" s="123"/>
-      <c r="O50" s="123"/>
-      <c r="P50" s="123"/>
-      <c r="Q50" s="123"/>
-      <c r="R50" s="123"/>
-      <c r="S50" s="124"/>
+      <c r="L50" s="118"/>
+      <c r="M50" s="134"/>
+      <c r="N50" s="134"/>
+      <c r="O50" s="134"/>
+      <c r="P50" s="134"/>
+      <c r="Q50" s="134"/>
+      <c r="R50" s="134"/>
+      <c r="S50" s="159"/>
       <c r="T50" s="79"/>
-      <c r="U50" s="122"/>
-      <c r="V50" s="123"/>
-      <c r="W50" s="123"/>
-      <c r="X50" s="123"/>
-      <c r="Y50" s="124"/>
+      <c r="U50" s="133"/>
+      <c r="V50" s="134"/>
+      <c r="W50" s="134"/>
+      <c r="X50" s="134"/>
+      <c r="Y50" s="159"/>
       <c r="Z50" s="79"/>
-      <c r="AA50" s="122"/>
-      <c r="AB50" s="123"/>
-      <c r="AC50" s="123"/>
-      <c r="AD50" s="123"/>
-      <c r="AE50" s="124"/>
+      <c r="AA50" s="133"/>
+      <c r="AB50" s="134"/>
+      <c r="AC50" s="134"/>
+      <c r="AD50" s="134"/>
+      <c r="AE50" s="159"/>
       <c r="AF50" s="59"/>
-      <c r="AG50" s="122"/>
-      <c r="AH50" s="123"/>
-      <c r="AI50" s="123"/>
-      <c r="AJ50" s="123"/>
-      <c r="AK50" s="123"/>
-      <c r="AL50" s="166"/>
+      <c r="AG50" s="133"/>
+      <c r="AH50" s="134"/>
+      <c r="AI50" s="134"/>
+      <c r="AJ50" s="134"/>
+      <c r="AK50" s="134"/>
+      <c r="AL50" s="115"/>
       <c r="AM50" s="59"/>
       <c r="AN50" s="59"/>
       <c r="AO50" s="59"/>
@@ -6203,13 +6203,13 @@
       <c r="BB50" s="59"/>
       <c r="BC50" s="59"/>
       <c r="BD50" s="59"/>
-      <c r="BE50" s="162"/>
-    </row>
-    <row r="51" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE50" s="111"/>
+    </row>
+    <row r="51" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="B51" s="164"/>
+      <c r="B51" s="113"/>
       <c r="C51" s="34"/>
       <c r="D51" s="59"/>
       <c r="E51" s="60"/>
@@ -6219,33 +6219,33 @@
       <c r="I51" s="61"/>
       <c r="J51" s="61"/>
       <c r="K51" s="59"/>
-      <c r="L51" s="169"/>
-      <c r="M51" s="126"/>
-      <c r="N51" s="126"/>
-      <c r="O51" s="126"/>
-      <c r="P51" s="126"/>
-      <c r="Q51" s="126"/>
-      <c r="R51" s="126"/>
-      <c r="S51" s="127"/>
+      <c r="L51" s="118"/>
+      <c r="M51" s="136"/>
+      <c r="N51" s="136"/>
+      <c r="O51" s="136"/>
+      <c r="P51" s="136"/>
+      <c r="Q51" s="136"/>
+      <c r="R51" s="136"/>
+      <c r="S51" s="160"/>
       <c r="T51" s="79"/>
-      <c r="U51" s="125"/>
-      <c r="V51" s="126"/>
-      <c r="W51" s="126"/>
-      <c r="X51" s="126"/>
-      <c r="Y51" s="127"/>
+      <c r="U51" s="135"/>
+      <c r="V51" s="136"/>
+      <c r="W51" s="136"/>
+      <c r="X51" s="136"/>
+      <c r="Y51" s="160"/>
       <c r="Z51" s="79"/>
-      <c r="AA51" s="125"/>
-      <c r="AB51" s="126"/>
-      <c r="AC51" s="126"/>
-      <c r="AD51" s="126"/>
-      <c r="AE51" s="127"/>
+      <c r="AA51" s="135"/>
+      <c r="AB51" s="136"/>
+      <c r="AC51" s="136"/>
+      <c r="AD51" s="136"/>
+      <c r="AE51" s="160"/>
       <c r="AF51" s="59"/>
-      <c r="AG51" s="125"/>
-      <c r="AH51" s="126"/>
-      <c r="AI51" s="126"/>
-      <c r="AJ51" s="126"/>
-      <c r="AK51" s="126"/>
-      <c r="AL51" s="166"/>
+      <c r="AG51" s="135"/>
+      <c r="AH51" s="136"/>
+      <c r="AI51" s="136"/>
+      <c r="AJ51" s="136"/>
+      <c r="AK51" s="136"/>
+      <c r="AL51" s="115"/>
       <c r="AM51" s="59"/>
       <c r="AN51" s="59"/>
       <c r="AO51" s="59"/>
@@ -6264,13 +6264,13 @@
       <c r="BB51" s="59"/>
       <c r="BC51" s="59"/>
       <c r="BD51" s="59"/>
-      <c r="BE51" s="162"/>
-    </row>
-    <row r="52" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE51" s="111"/>
+    </row>
+    <row r="52" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="B52" s="164"/>
+      <c r="B52" s="113"/>
       <c r="C52" s="34"/>
       <c r="D52" s="59"/>
       <c r="E52" s="60"/>
@@ -6280,33 +6280,33 @@
       <c r="I52" s="61"/>
       <c r="J52" s="61"/>
       <c r="K52" s="59"/>
-      <c r="L52" s="169"/>
-      <c r="M52" s="129"/>
-      <c r="N52" s="129"/>
-      <c r="O52" s="129"/>
-      <c r="P52" s="129"/>
-      <c r="Q52" s="129"/>
-      <c r="R52" s="129"/>
-      <c r="S52" s="130"/>
+      <c r="L52" s="118"/>
+      <c r="M52" s="120"/>
+      <c r="N52" s="120"/>
+      <c r="O52" s="120"/>
+      <c r="P52" s="120"/>
+      <c r="Q52" s="120"/>
+      <c r="R52" s="120"/>
+      <c r="S52" s="121"/>
       <c r="T52" s="59"/>
-      <c r="U52" s="128"/>
-      <c r="V52" s="129"/>
-      <c r="W52" s="129"/>
-      <c r="X52" s="129"/>
-      <c r="Y52" s="130"/>
+      <c r="U52" s="122"/>
+      <c r="V52" s="120"/>
+      <c r="W52" s="120"/>
+      <c r="X52" s="120"/>
+      <c r="Y52" s="121"/>
       <c r="Z52" s="59"/>
-      <c r="AA52" s="128"/>
-      <c r="AB52" s="129"/>
-      <c r="AC52" s="129"/>
-      <c r="AD52" s="129"/>
-      <c r="AE52" s="130"/>
+      <c r="AA52" s="122"/>
+      <c r="AB52" s="120"/>
+      <c r="AC52" s="120"/>
+      <c r="AD52" s="120"/>
+      <c r="AE52" s="121"/>
       <c r="AF52" s="59"/>
-      <c r="AG52" s="128"/>
-      <c r="AH52" s="129"/>
-      <c r="AI52" s="129"/>
-      <c r="AJ52" s="129"/>
-      <c r="AK52" s="129"/>
-      <c r="AL52" s="166"/>
+      <c r="AG52" s="122"/>
+      <c r="AH52" s="120"/>
+      <c r="AI52" s="120"/>
+      <c r="AJ52" s="120"/>
+      <c r="AK52" s="120"/>
+      <c r="AL52" s="115"/>
       <c r="AM52" s="59"/>
       <c r="AN52" s="59"/>
       <c r="AO52" s="59"/>
@@ -6325,13 +6325,13 @@
       <c r="BB52" s="59"/>
       <c r="BC52" s="59"/>
       <c r="BD52" s="59"/>
-      <c r="BE52" s="162"/>
-    </row>
-    <row r="53" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BE52" s="111"/>
+    </row>
+    <row r="53" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="B53" s="164"/>
+      <c r="B53" s="113"/>
       <c r="C53" s="34"/>
       <c r="D53" s="59"/>
       <c r="E53" s="60"/>
@@ -6341,8 +6341,8 @@
       <c r="I53" s="61"/>
       <c r="J53" s="61"/>
       <c r="K53" s="59"/>
-      <c r="L53" s="169"/>
-      <c r="M53" s="171"/>
+      <c r="L53" s="118"/>
+      <c r="M53" s="128"/>
       <c r="P53" s="15">
         <v>4</v>
       </c>
@@ -6350,9 +6350,9 @@
         <v>28</v>
       </c>
       <c r="R53" s="101"/>
-      <c r="S53" s="134"/>
+      <c r="S53" s="125"/>
       <c r="T53" s="59"/>
-      <c r="U53" s="134"/>
+      <c r="U53" s="125"/>
       <c r="V53" s="4">
         <v>4</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>28</v>
       </c>
       <c r="X53" s="138"/>
-      <c r="Y53" s="134"/>
+      <c r="Y53" s="125"/>
       <c r="Z53" s="85"/>
       <c r="AA53" s="63"/>
       <c r="AB53" s="4">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="AJ53" s="138"/>
       <c r="AK53" s="75"/>
-      <c r="AL53" s="166"/>
+      <c r="AL53" s="115"/>
       <c r="AM53" s="59"/>
       <c r="AN53" s="59"/>
       <c r="AO53" s="59"/>
@@ -6400,13 +6400,13 @@
       <c r="BB53" s="59"/>
       <c r="BC53" s="59"/>
       <c r="BD53" s="59"/>
-      <c r="BE53" s="162"/>
-    </row>
-    <row r="54" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE53" s="111"/>
+    </row>
+    <row r="54" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="B54" s="164"/>
+      <c r="B54" s="113"/>
       <c r="C54" s="34"/>
       <c r="D54" s="59"/>
       <c r="E54" s="60"/>
@@ -6416,8 +6416,8 @@
       <c r="I54" s="61"/>
       <c r="J54" s="61"/>
       <c r="K54" s="59"/>
-      <c r="L54" s="169"/>
-      <c r="M54" s="145"/>
+      <c r="L54" s="118"/>
+      <c r="M54" s="129"/>
       <c r="P54" s="3" t="s">
         <v>32</v>
       </c>
@@ -6427,9 +6427,9 @@
       <c r="R54" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="S54" s="135"/>
+      <c r="S54" s="126"/>
       <c r="T54" s="59"/>
-      <c r="U54" s="135"/>
+      <c r="U54" s="126"/>
       <c r="V54" s="3" t="s">
         <v>32</v>
       </c>
@@ -6439,7 +6439,7 @@
       <c r="X54" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Y54" s="135"/>
+      <c r="Y54" s="126"/>
       <c r="Z54" s="61"/>
       <c r="AA54" s="64"/>
       <c r="AB54" s="3" t="s">
@@ -6464,7 +6464,7 @@
         <v>34</v>
       </c>
       <c r="AK54" s="76"/>
-      <c r="AL54" s="166"/>
+      <c r="AL54" s="115"/>
       <c r="AM54" s="59"/>
       <c r="AN54" s="59"/>
       <c r="AO54" s="59"/>
@@ -6483,13 +6483,13 @@
       <c r="BB54" s="59"/>
       <c r="BC54" s="59"/>
       <c r="BD54" s="59"/>
-      <c r="BE54" s="162"/>
-    </row>
-    <row r="55" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE54" s="111"/>
+    </row>
+    <row r="55" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="B55" s="164"/>
+      <c r="B55" s="113"/>
       <c r="C55" s="34"/>
       <c r="D55" s="59"/>
       <c r="E55" s="60"/>
@@ -6499,9 +6499,9 @@
       <c r="I55" s="61"/>
       <c r="J55" s="61"/>
       <c r="K55" s="59"/>
-      <c r="L55" s="169"/>
-      <c r="M55" s="145"/>
-      <c r="P55" s="139" t="s">
+      <c r="L55" s="118"/>
+      <c r="M55" s="129"/>
+      <c r="P55" s="155" t="s">
         <v>129</v>
       </c>
       <c r="Q55" s="10" t="str">
@@ -6511,10 +6511,10 @@
       <c r="R55" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="S55" s="135"/>
+      <c r="S55" s="126"/>
       <c r="T55" s="59"/>
-      <c r="U55" s="135"/>
-      <c r="V55" s="131" t="s">
+      <c r="U55" s="126"/>
+      <c r="V55" s="123" t="s">
         <v>130</v>
       </c>
       <c r="W55" s="10" t="str">
@@ -6524,10 +6524,10 @@
       <c r="X55" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="Y55" s="135"/>
+      <c r="Y55" s="126"/>
       <c r="Z55" s="62"/>
       <c r="AA55" s="64"/>
-      <c r="AB55" s="131" t="s">
+      <c r="AB55" s="123" t="s">
         <v>131</v>
       </c>
       <c r="AC55" s="10" t="str">
@@ -6540,7 +6540,7 @@
       <c r="AE55" s="64"/>
       <c r="AF55" s="59"/>
       <c r="AG55" s="64"/>
-      <c r="AH55" s="131" t="s">
+      <c r="AH55" s="123" t="s">
         <v>132</v>
       </c>
       <c r="AI55" s="10" t="str">
@@ -6551,7 +6551,7 @@
         <v>59</v>
       </c>
       <c r="AK55" s="76"/>
-      <c r="AL55" s="166"/>
+      <c r="AL55" s="115"/>
       <c r="AM55" s="59"/>
       <c r="AN55" s="59"/>
       <c r="AO55" s="59"/>
@@ -6570,13 +6570,13 @@
       <c r="BB55" s="59"/>
       <c r="BC55" s="59"/>
       <c r="BD55" s="59"/>
-      <c r="BE55" s="162"/>
-    </row>
-    <row r="56" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE55" s="111"/>
+    </row>
+    <row r="56" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="B56" s="164"/>
+      <c r="B56" s="113"/>
       <c r="C56" s="34"/>
       <c r="D56" s="59"/>
       <c r="E56" s="60"/>
@@ -6586,9 +6586,9 @@
       <c r="I56" s="61"/>
       <c r="J56" s="61"/>
       <c r="K56" s="59"/>
-      <c r="L56" s="169"/>
-      <c r="M56" s="145"/>
-      <c r="P56" s="140"/>
+      <c r="L56" s="118"/>
+      <c r="M56" s="129"/>
+      <c r="P56" s="156"/>
       <c r="Q56" s="11" t="str">
         <f>IF(ISBLANK($R$31),"D3",$R$31)</f>
         <v>Liso</v>
@@ -6596,10 +6596,10 @@
       <c r="R56" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="S56" s="135"/>
+      <c r="S56" s="126"/>
       <c r="T56" s="59"/>
-      <c r="U56" s="135"/>
-      <c r="V56" s="132"/>
+      <c r="U56" s="126"/>
+      <c r="V56" s="124"/>
       <c r="W56" s="11" t="str">
         <f>IF(ISBLANK($R$60),"M2",$R$60)</f>
         <v>el ombre luna</v>
@@ -6607,10 +6607,10 @@
       <c r="X56" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="Y56" s="135"/>
+      <c r="Y56" s="126"/>
       <c r="Z56" s="62"/>
       <c r="AA56" s="64"/>
-      <c r="AB56" s="132"/>
+      <c r="AB56" s="124"/>
       <c r="AC56" s="17" t="str">
         <f>IF(ISBLANK($X$59),"P1",$X$59)</f>
         <v>Groluche</v>
@@ -6621,7 +6621,7 @@
       <c r="AE56" s="65"/>
       <c r="AF56" s="59"/>
       <c r="AG56" s="64"/>
-      <c r="AH56" s="132"/>
+      <c r="AH56" s="124"/>
       <c r="AI56" s="11" t="str">
         <f>IF(ISBLANK($AD$59),"S1",$AD$59)</f>
         <v>SewLink</v>
@@ -6630,7 +6630,7 @@
         <v>47</v>
       </c>
       <c r="AK56" s="76"/>
-      <c r="AL56" s="166"/>
+      <c r="AL56" s="115"/>
       <c r="AM56" s="59"/>
       <c r="AN56" s="59"/>
       <c r="AO56" s="59"/>
@@ -6649,13 +6649,13 @@
       <c r="BB56" s="59"/>
       <c r="BC56" s="59"/>
       <c r="BD56" s="59"/>
-      <c r="BE56" s="162"/>
-    </row>
-    <row r="57" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE56" s="111"/>
+    </row>
+    <row r="57" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="B57" s="164"/>
+      <c r="B57" s="113"/>
       <c r="C57" s="34"/>
       <c r="D57" s="59"/>
       <c r="E57" s="60"/>
@@ -6665,9 +6665,9 @@
       <c r="I57" s="61"/>
       <c r="J57" s="61"/>
       <c r="K57" s="59"/>
-      <c r="L57" s="169"/>
-      <c r="M57" s="145"/>
-      <c r="P57" s="140"/>
+      <c r="L57" s="118"/>
+      <c r="M57" s="129"/>
+      <c r="P57" s="156"/>
       <c r="Q57" s="11" t="str">
         <f>IF(ISBLANK($R$24),"B4",$R$24)</f>
         <v>Gagou</v>
@@ -6675,10 +6675,10 @@
       <c r="R57" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="S57" s="135"/>
+      <c r="S57" s="126"/>
       <c r="T57" s="59"/>
-      <c r="U57" s="135"/>
-      <c r="V57" s="132"/>
+      <c r="U57" s="126"/>
+      <c r="V57" s="124"/>
       <c r="W57" s="11" t="str">
         <f>IF(ISBLANK($X$19),"G3",$X$19)</f>
         <v>ioupy</v>
@@ -6686,10 +6686,10 @@
       <c r="X57" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="Y57" s="135"/>
+      <c r="Y57" s="126"/>
       <c r="Z57" s="62"/>
       <c r="AA57" s="64"/>
-      <c r="AB57" s="132"/>
+      <c r="AB57" s="124"/>
       <c r="AC57" s="11" t="str">
         <f>IF(ISBLANK($X$64),"Q2",$X$64)</f>
         <v>AksL</v>
@@ -6700,7 +6700,7 @@
       <c r="AE57" s="64"/>
       <c r="AF57" s="59"/>
       <c r="AG57" s="64"/>
-      <c r="AH57" s="132"/>
+      <c r="AH57" s="124"/>
       <c r="AI57" s="11" t="str">
         <f>IF(ISBLANK($AJ$19),"WF3",$AJ$19)</f>
         <v>Batefimbi</v>
@@ -6709,7 +6709,7 @@
         <v>43</v>
       </c>
       <c r="AK57" s="76"/>
-      <c r="AL57" s="166"/>
+      <c r="AL57" s="115"/>
       <c r="AM57" s="59"/>
       <c r="AN57" s="59"/>
       <c r="AO57" s="59"/>
@@ -6728,13 +6728,13 @@
       <c r="BB57" s="59"/>
       <c r="BC57" s="59"/>
       <c r="BD57" s="59"/>
-      <c r="BE57" s="162"/>
-    </row>
-    <row r="58" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE57" s="111"/>
+    </row>
+    <row r="58" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="B58" s="164"/>
+      <c r="B58" s="113"/>
       <c r="C58" s="34"/>
       <c r="D58" s="59"/>
       <c r="E58" s="60"/>
@@ -6744,9 +6744,9 @@
       <c r="I58" s="61"/>
       <c r="J58" s="61"/>
       <c r="K58" s="59"/>
-      <c r="L58" s="169"/>
-      <c r="M58" s="145"/>
-      <c r="P58" s="141"/>
+      <c r="L58" s="118"/>
+      <c r="M58" s="129"/>
+      <c r="P58" s="157"/>
       <c r="Q58" s="11" t="str">
         <f>IF(ISBLANK($R$36),"E4",$R$36)</f>
         <v>Leas</v>
@@ -6754,10 +6754,10 @@
       <c r="R58" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="S58" s="135"/>
+      <c r="S58" s="126"/>
       <c r="T58" s="59"/>
-      <c r="U58" s="135"/>
-      <c r="V58" s="133"/>
+      <c r="U58" s="126"/>
+      <c r="V58" s="150"/>
       <c r="W58" s="11" t="str">
         <f>IF(ISBLANK($X$24),"H4",$X$24)</f>
         <v>Aibelle</v>
@@ -6765,10 +6765,10 @@
       <c r="X58" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="Y58" s="135"/>
+      <c r="Y58" s="126"/>
       <c r="Z58" s="62"/>
       <c r="AA58" s="64"/>
-      <c r="AB58" s="133"/>
+      <c r="AB58" s="150"/>
       <c r="AC58" s="11" t="str">
         <f>IF(ISBLANK($AD$19),"J3",$AD$19)</f>
         <v>Bastian</v>
@@ -6779,7 +6779,7 @@
       <c r="AE58" s="64"/>
       <c r="AF58" s="73"/>
       <c r="AG58" s="64"/>
-      <c r="AH58" s="132"/>
+      <c r="AH58" s="124"/>
       <c r="AI58" s="11" t="str">
         <f>IF(ISBLANK($AJ$20),"WF4",$AJ$20)</f>
         <v>Supnyus</v>
@@ -6788,7 +6788,7 @@
         <v>26</v>
       </c>
       <c r="AK58" s="76"/>
-      <c r="AL58" s="166"/>
+      <c r="AL58" s="115"/>
       <c r="AM58" s="59"/>
       <c r="AN58" s="59"/>
       <c r="AO58" s="59"/>
@@ -6807,13 +6807,13 @@
       <c r="BB58" s="59"/>
       <c r="BC58" s="59"/>
       <c r="BD58" s="59"/>
-      <c r="BE58" s="162"/>
-    </row>
-    <row r="59" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE58" s="111"/>
+    </row>
+    <row r="59" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="78" t="s">
         <v>136</v>
       </c>
-      <c r="B59" s="164"/>
+      <c r="B59" s="113"/>
       <c r="C59" s="34"/>
       <c r="D59" s="59"/>
       <c r="E59" s="60"/>
@@ -6823,9 +6823,9 @@
       <c r="I59" s="61"/>
       <c r="J59" s="61"/>
       <c r="K59" s="59"/>
-      <c r="L59" s="169"/>
-      <c r="M59" s="145"/>
-      <c r="P59" s="139" t="s">
+      <c r="L59" s="118"/>
+      <c r="M59" s="129"/>
+      <c r="P59" s="155" t="s">
         <v>137</v>
       </c>
       <c r="Q59" s="10" t="str">
@@ -6835,10 +6835,10 @@
       <c r="R59" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="S59" s="135"/>
+      <c r="S59" s="126"/>
       <c r="T59" s="59"/>
-      <c r="U59" s="135"/>
-      <c r="V59" s="131" t="s">
+      <c r="U59" s="126"/>
+      <c r="V59" s="123" t="s">
         <v>138</v>
       </c>
       <c r="W59" s="10" t="str">
@@ -6848,10 +6848,10 @@
       <c r="X59" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="Y59" s="135"/>
+      <c r="Y59" s="126"/>
       <c r="Z59" s="62"/>
       <c r="AA59" s="64"/>
-      <c r="AB59" s="131" t="s">
+      <c r="AB59" s="123" t="s">
         <v>139</v>
       </c>
       <c r="AC59" s="10" t="str">
@@ -6863,12 +6863,12 @@
       </c>
       <c r="AE59" s="64"/>
       <c r="AF59" s="73"/>
-      <c r="AG59" s="128"/>
-      <c r="AH59" s="129"/>
-      <c r="AI59" s="129"/>
-      <c r="AJ59" s="129"/>
-      <c r="AK59" s="129"/>
-      <c r="AL59" s="166"/>
+      <c r="AG59" s="122"/>
+      <c r="AH59" s="120"/>
+      <c r="AI59" s="120"/>
+      <c r="AJ59" s="120"/>
+      <c r="AK59" s="120"/>
+      <c r="AL59" s="115"/>
       <c r="AM59" s="59"/>
       <c r="AN59" s="59"/>
       <c r="AO59" s="59"/>
@@ -6887,13 +6887,13 @@
       <c r="BB59" s="59"/>
       <c r="BC59" s="59"/>
       <c r="BD59" s="59"/>
-      <c r="BE59" s="162"/>
-    </row>
-    <row r="60" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE59" s="111"/>
+    </row>
+    <row r="60" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="B60" s="164"/>
+      <c r="B60" s="113"/>
       <c r="C60" s="34"/>
       <c r="D60" s="59"/>
       <c r="E60" s="60"/>
@@ -6903,9 +6903,9 @@
       <c r="I60" s="61"/>
       <c r="J60" s="61"/>
       <c r="K60" s="59"/>
-      <c r="L60" s="169"/>
-      <c r="M60" s="145"/>
-      <c r="P60" s="140"/>
+      <c r="L60" s="118"/>
+      <c r="M60" s="129"/>
+      <c r="P60" s="156"/>
       <c r="Q60" s="11" t="str">
         <f>IF(ISBLANK($R$35),"E3",$R$35)</f>
         <v>Groluche</v>
@@ -6913,10 +6913,10 @@
       <c r="R60" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="S60" s="135"/>
+      <c r="S60" s="126"/>
       <c r="T60" s="59"/>
-      <c r="U60" s="135"/>
-      <c r="V60" s="132"/>
+      <c r="U60" s="126"/>
+      <c r="V60" s="124"/>
       <c r="W60" s="11" t="str">
         <f>IF(ISBLANK($R$64),"N2",$R$64)</f>
         <v>KevLeBoss</v>
@@ -6924,10 +6924,10 @@
       <c r="X60" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="Y60" s="135"/>
+      <c r="Y60" s="126"/>
       <c r="Z60" s="62"/>
       <c r="AA60" s="64"/>
-      <c r="AB60" s="132"/>
+      <c r="AB60" s="124"/>
       <c r="AC60" s="17" t="str">
         <f>IF(ISBLANK($X$56),"O2",$X$56)</f>
         <v>Aibelle</v>
@@ -6942,7 +6942,7 @@
       <c r="AI60" s="62"/>
       <c r="AJ60" s="81"/>
       <c r="AK60" s="59"/>
-      <c r="AL60" s="166"/>
+      <c r="AL60" s="115"/>
       <c r="AM60" s="59"/>
       <c r="AN60" s="59"/>
       <c r="AO60" s="59"/>
@@ -6961,13 +6961,13 @@
       <c r="BB60" s="59"/>
       <c r="BC60" s="59"/>
       <c r="BD60" s="59"/>
-      <c r="BE60" s="162"/>
-    </row>
-    <row r="61" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE60" s="111"/>
+    </row>
+    <row r="61" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="78" t="s">
         <v>141</v>
       </c>
-      <c r="B61" s="164"/>
+      <c r="B61" s="113"/>
       <c r="C61" s="34"/>
       <c r="D61" s="59"/>
       <c r="E61" s="60"/>
@@ -6977,9 +6977,9 @@
       <c r="I61" s="61"/>
       <c r="J61" s="61"/>
       <c r="K61" s="59"/>
-      <c r="L61" s="169"/>
-      <c r="M61" s="145"/>
-      <c r="P61" s="140"/>
+      <c r="L61" s="118"/>
+      <c r="M61" s="129"/>
+      <c r="P61" s="156"/>
       <c r="Q61" s="11" t="str">
         <f>IF(ISBLANK($R$28),"C4",$R$28)</f>
         <v>Zoz</v>
@@ -6987,10 +6987,10 @@
       <c r="R61" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="S61" s="135"/>
+      <c r="S61" s="126"/>
       <c r="T61" s="59"/>
-      <c r="U61" s="135"/>
-      <c r="V61" s="132"/>
+      <c r="U61" s="126"/>
+      <c r="V61" s="124"/>
       <c r="W61" s="11" t="str">
         <f>IF(ISBLANK($X$23),"H3",$X$23)</f>
         <v>Xols</v>
@@ -6998,10 +6998,10 @@
       <c r="X61" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="Y61" s="135"/>
+      <c r="Y61" s="126"/>
       <c r="Z61" s="62"/>
       <c r="AA61" s="64"/>
-      <c r="AB61" s="132"/>
+      <c r="AB61" s="124"/>
       <c r="AC61" s="11" t="str">
         <f>IF(ISBLANK($X$60),"P2",$X$60)</f>
         <v>Kabag</v>
@@ -7016,7 +7016,7 @@
       <c r="AI61" s="89"/>
       <c r="AJ61" s="89"/>
       <c r="AK61" s="59"/>
-      <c r="AL61" s="166"/>
+      <c r="AL61" s="115"/>
       <c r="AM61" s="59"/>
       <c r="AN61" s="59"/>
       <c r="AO61" s="59"/>
@@ -7035,13 +7035,13 @@
       <c r="BB61" s="59"/>
       <c r="BC61" s="59"/>
       <c r="BD61" s="59"/>
-      <c r="BE61" s="162"/>
-    </row>
-    <row r="62" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE61" s="111"/>
+    </row>
+    <row r="62" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="B62" s="164"/>
+      <c r="B62" s="113"/>
       <c r="C62" s="34"/>
       <c r="D62" s="59"/>
       <c r="E62" s="60"/>
@@ -7051,9 +7051,9 @@
       <c r="I62" s="61"/>
       <c r="J62" s="61"/>
       <c r="K62" s="59"/>
-      <c r="L62" s="169"/>
-      <c r="M62" s="145"/>
-      <c r="P62" s="141"/>
+      <c r="L62" s="118"/>
+      <c r="M62" s="129"/>
+      <c r="P62" s="157"/>
       <c r="Q62" s="11" t="str">
         <f>IF(ISBLANK($R$40),"F4",$R$40)</f>
         <v>el ombre luna</v>
@@ -7061,10 +7061,10 @@
       <c r="R62" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S62" s="135"/>
+      <c r="S62" s="126"/>
       <c r="T62" s="59"/>
-      <c r="U62" s="135"/>
-      <c r="V62" s="133"/>
+      <c r="U62" s="126"/>
+      <c r="V62" s="150"/>
       <c r="W62" s="12" t="str">
         <f>IF(ISBLANK($X$28),"I4",$X$28)</f>
         <v>Kabag</v>
@@ -7072,10 +7072,10 @@
       <c r="X62" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Y62" s="135"/>
+      <c r="Y62" s="126"/>
       <c r="Z62" s="62"/>
       <c r="AA62" s="64"/>
-      <c r="AB62" s="132"/>
+      <c r="AB62" s="124"/>
       <c r="AC62" s="11" t="str">
         <f>IF(ISBLANK($AD$22),"K3",$AD$22)</f>
         <v>Charasime</v>
@@ -7090,7 +7090,7 @@
       <c r="AI62" s="62"/>
       <c r="AJ62" s="81"/>
       <c r="AK62" s="59"/>
-      <c r="AL62" s="166"/>
+      <c r="AL62" s="115"/>
       <c r="AM62" s="59"/>
       <c r="AN62" s="59"/>
       <c r="AO62" s="59"/>
@@ -7109,13 +7109,13 @@
       <c r="BB62" s="59"/>
       <c r="BC62" s="59"/>
       <c r="BD62" s="59"/>
-      <c r="BE62" s="162"/>
-    </row>
-    <row r="63" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE62" s="111"/>
+    </row>
+    <row r="63" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="B63" s="164"/>
+      <c r="B63" s="113"/>
       <c r="C63" s="34"/>
       <c r="D63" s="59"/>
       <c r="E63" s="60"/>
@@ -7125,9 +7125,9 @@
       <c r="I63" s="61"/>
       <c r="J63" s="61"/>
       <c r="K63" s="59"/>
-      <c r="L63" s="169"/>
-      <c r="M63" s="145"/>
-      <c r="P63" s="139" t="s">
+      <c r="L63" s="118"/>
+      <c r="M63" s="129"/>
+      <c r="P63" s="155" t="s">
         <v>144</v>
       </c>
       <c r="Q63" s="10" t="str">
@@ -7137,10 +7137,10 @@
       <c r="R63" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="S63" s="135"/>
+      <c r="S63" s="126"/>
       <c r="T63" s="59"/>
-      <c r="U63" s="135"/>
-      <c r="V63" s="131" t="s">
+      <c r="U63" s="126"/>
+      <c r="V63" s="123" t="s">
         <v>145</v>
       </c>
       <c r="W63" s="10" t="str">
@@ -7150,20 +7150,20 @@
       <c r="X63" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="Y63" s="135"/>
+      <c r="Y63" s="126"/>
       <c r="Z63" s="59"/>
-      <c r="AA63" s="128"/>
-      <c r="AB63" s="129"/>
-      <c r="AC63" s="129"/>
-      <c r="AD63" s="129"/>
-      <c r="AE63" s="130"/>
+      <c r="AA63" s="122"/>
+      <c r="AB63" s="120"/>
+      <c r="AC63" s="120"/>
+      <c r="AD63" s="120"/>
+      <c r="AE63" s="121"/>
       <c r="AF63" s="73"/>
       <c r="AG63" s="59"/>
       <c r="AH63" s="88"/>
       <c r="AI63" s="62"/>
       <c r="AJ63" s="81"/>
       <c r="AK63" s="59"/>
-      <c r="AL63" s="166"/>
+      <c r="AL63" s="115"/>
       <c r="AM63" s="59"/>
       <c r="AN63" s="59"/>
       <c r="AO63" s="59"/>
@@ -7182,13 +7182,13 @@
       <c r="BB63" s="59"/>
       <c r="BC63" s="59"/>
       <c r="BD63" s="59"/>
-      <c r="BE63" s="162"/>
-    </row>
-    <row r="64" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE63" s="111"/>
+    </row>
+    <row r="64" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="B64" s="164"/>
+      <c r="B64" s="113"/>
       <c r="C64" s="34"/>
       <c r="D64" s="59"/>
       <c r="E64" s="60"/>
@@ -7198,9 +7198,9 @@
       <c r="I64" s="61"/>
       <c r="J64" s="61"/>
       <c r="K64" s="59"/>
-      <c r="L64" s="169"/>
-      <c r="M64" s="145"/>
-      <c r="P64" s="140"/>
+      <c r="L64" s="118"/>
+      <c r="M64" s="129"/>
+      <c r="P64" s="156"/>
       <c r="Q64" s="11" t="str">
         <f>IF(ISBLANK($R$39),"F3",$R$39)</f>
         <v>Voltar</v>
@@ -7208,10 +7208,10 @@
       <c r="R64" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="S64" s="135"/>
+      <c r="S64" s="126"/>
       <c r="T64" s="59"/>
-      <c r="U64" s="135"/>
-      <c r="V64" s="132"/>
+      <c r="U64" s="126"/>
+      <c r="V64" s="124"/>
       <c r="W64" s="11" t="str">
         <f>IF(ISBLANK($R$56),"L2",$R$56)</f>
         <v>Canard</v>
@@ -7219,7 +7219,7 @@
       <c r="X64" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Y64" s="135"/>
+      <c r="Y64" s="126"/>
       <c r="Z64" s="59"/>
       <c r="AA64" s="59"/>
       <c r="AB64" s="88"/>
@@ -7232,7 +7232,7 @@
       <c r="AI64" s="62"/>
       <c r="AJ64" s="81"/>
       <c r="AK64" s="59"/>
-      <c r="AL64" s="166"/>
+      <c r="AL64" s="115"/>
       <c r="AM64" s="59"/>
       <c r="AN64" s="59"/>
       <c r="AO64" s="59"/>
@@ -7251,13 +7251,13 @@
       <c r="BB64" s="59"/>
       <c r="BC64" s="59"/>
       <c r="BD64" s="59"/>
-      <c r="BE64" s="162"/>
-    </row>
-    <row r="65" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE64" s="111"/>
+    </row>
+    <row r="65" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="B65" s="164"/>
+      <c r="B65" s="113"/>
       <c r="C65" s="34"/>
       <c r="D65" s="59"/>
       <c r="E65" s="60"/>
@@ -7267,9 +7267,9 @@
       <c r="I65" s="61"/>
       <c r="J65" s="61"/>
       <c r="K65" s="59"/>
-      <c r="L65" s="169"/>
-      <c r="M65" s="145"/>
-      <c r="P65" s="140"/>
+      <c r="L65" s="118"/>
+      <c r="M65" s="129"/>
+      <c r="P65" s="156"/>
       <c r="Q65" s="11" t="str">
         <f>IF(ISBLANK($R$20),"A4",$R$20)</f>
         <v>KevLeBoss</v>
@@ -7277,10 +7277,10 @@
       <c r="R65" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="S65" s="135"/>
+      <c r="S65" s="126"/>
       <c r="T65" s="59"/>
-      <c r="U65" s="135"/>
-      <c r="V65" s="132"/>
+      <c r="U65" s="126"/>
+      <c r="V65" s="124"/>
       <c r="W65" s="11" t="str">
         <f>IF(ISBLANK($X$27),"I3",$X$27)</f>
         <v>AksL</v>
@@ -7288,7 +7288,7 @@
       <c r="X65" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="Y65" s="135"/>
+      <c r="Y65" s="126"/>
       <c r="Z65" s="59"/>
       <c r="AA65" s="59"/>
       <c r="AB65" s="88"/>
@@ -7301,7 +7301,7 @@
       <c r="AI65" s="62"/>
       <c r="AJ65" s="81"/>
       <c r="AK65" s="59"/>
-      <c r="AL65" s="166"/>
+      <c r="AL65" s="115"/>
       <c r="AM65" s="59"/>
       <c r="AN65" s="59"/>
       <c r="AO65" s="59"/>
@@ -7320,13 +7320,13 @@
       <c r="BB65" s="59"/>
       <c r="BC65" s="59"/>
       <c r="BD65" s="59"/>
-      <c r="BE65" s="162"/>
-    </row>
-    <row r="66" spans="1:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE65" s="111"/>
+    </row>
+    <row r="66" spans="1:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="B66" s="164"/>
+      <c r="B66" s="113"/>
       <c r="C66" s="34"/>
       <c r="D66" s="59"/>
       <c r="E66" s="60"/>
@@ -7336,9 +7336,9 @@
       <c r="I66" s="61"/>
       <c r="J66" s="61"/>
       <c r="K66" s="59"/>
-      <c r="L66" s="169"/>
-      <c r="M66" s="157"/>
-      <c r="P66" s="141"/>
+      <c r="L66" s="118"/>
+      <c r="M66" s="130"/>
+      <c r="P66" s="157"/>
       <c r="Q66" s="11" t="str">
         <f>IF(ISBLANK($R$32),"D4",$R$32)</f>
         <v>SuperHulk2005</v>
@@ -7346,10 +7346,10 @@
       <c r="R66" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="S66" s="136"/>
+      <c r="S66" s="127"/>
       <c r="T66" s="59"/>
-      <c r="U66" s="136"/>
-      <c r="V66" s="133"/>
+      <c r="U66" s="127"/>
+      <c r="V66" s="150"/>
       <c r="W66" s="12" t="str">
         <f>IF(ISBLANK($X$20),"G4",$X$20)</f>
         <v>SewLink</v>
@@ -7357,7 +7357,7 @@
       <c r="X66" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="Y66" s="136"/>
+      <c r="Y66" s="127"/>
       <c r="Z66" s="59"/>
       <c r="AA66" s="59"/>
       <c r="AB66" s="88"/>
@@ -7370,7 +7370,7 @@
       <c r="AI66" s="62"/>
       <c r="AJ66" s="81"/>
       <c r="AK66" s="59"/>
-      <c r="AL66" s="166"/>
+      <c r="AL66" s="115"/>
       <c r="AM66" s="59"/>
       <c r="AN66" s="59"/>
       <c r="AO66" s="59"/>
@@ -7389,13 +7389,13 @@
       <c r="BB66" s="59"/>
       <c r="BC66" s="59"/>
       <c r="BD66" s="59"/>
-      <c r="BE66" s="162"/>
-    </row>
-    <row r="67" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE66" s="111"/>
+    </row>
+    <row r="67" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="78" t="s">
         <v>149</v>
       </c>
-      <c r="B67" s="164"/>
+      <c r="B67" s="113"/>
       <c r="C67" s="34"/>
       <c r="D67" s="59"/>
       <c r="E67" s="60"/>
@@ -7405,20 +7405,20 @@
       <c r="I67" s="61"/>
       <c r="J67" s="61"/>
       <c r="K67" s="59"/>
-      <c r="L67" s="169"/>
-      <c r="M67" s="129"/>
-      <c r="N67" s="129"/>
-      <c r="O67" s="129"/>
-      <c r="P67" s="129"/>
-      <c r="Q67" s="129"/>
-      <c r="R67" s="129"/>
-      <c r="S67" s="130"/>
+      <c r="L67" s="118"/>
+      <c r="M67" s="120"/>
+      <c r="N67" s="120"/>
+      <c r="O67" s="120"/>
+      <c r="P67" s="120"/>
+      <c r="Q67" s="120"/>
+      <c r="R67" s="120"/>
+      <c r="S67" s="121"/>
       <c r="T67" s="59"/>
-      <c r="U67" s="128"/>
-      <c r="V67" s="129"/>
-      <c r="W67" s="129"/>
-      <c r="X67" s="129"/>
-      <c r="Y67" s="130"/>
+      <c r="U67" s="122"/>
+      <c r="V67" s="120"/>
+      <c r="W67" s="120"/>
+      <c r="X67" s="120"/>
+      <c r="Y67" s="121"/>
       <c r="Z67" s="59"/>
       <c r="AA67" s="59"/>
       <c r="AB67" s="88"/>
@@ -7431,7 +7431,7 @@
       <c r="AI67" s="62"/>
       <c r="AJ67" s="81"/>
       <c r="AK67" s="59"/>
-      <c r="AL67" s="166"/>
+      <c r="AL67" s="115"/>
       <c r="AM67" s="59"/>
       <c r="AN67" s="59"/>
       <c r="AO67" s="59"/>
@@ -7450,13 +7450,13 @@
       <c r="BB67" s="59"/>
       <c r="BC67" s="59"/>
       <c r="BD67" s="59"/>
-      <c r="BE67" s="162"/>
-    </row>
-    <row r="68" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE67" s="111"/>
+    </row>
+    <row r="68" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="B68" s="164"/>
+      <c r="B68" s="113"/>
       <c r="C68" s="34"/>
       <c r="D68" s="59"/>
       <c r="E68" s="60"/>
@@ -7466,7 +7466,7 @@
       <c r="I68" s="61"/>
       <c r="J68" s="61"/>
       <c r="K68" s="59"/>
-      <c r="L68" s="169"/>
+      <c r="L68" s="118"/>
       <c r="M68" s="73"/>
       <c r="N68" s="59"/>
       <c r="O68" s="59"/>
@@ -7492,7 +7492,7 @@
       <c r="AI68" s="62"/>
       <c r="AJ68" s="81"/>
       <c r="AK68" s="59"/>
-      <c r="AL68" s="166"/>
+      <c r="AL68" s="115"/>
       <c r="AM68" s="59"/>
       <c r="AN68" s="59"/>
       <c r="AO68" s="59"/>
@@ -7511,13 +7511,13 @@
       <c r="BB68" s="59"/>
       <c r="BC68" s="59"/>
       <c r="BD68" s="59"/>
-      <c r="BE68" s="162"/>
-    </row>
-    <row r="69" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BE68" s="111"/>
+    </row>
+    <row r="69" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="B69" s="164"/>
+      <c r="B69" s="113"/>
       <c r="C69" s="36"/>
       <c r="D69" s="37"/>
       <c r="E69" s="38"/>
@@ -7527,20 +7527,20 @@
       <c r="I69" s="47"/>
       <c r="J69" s="47"/>
       <c r="K69" s="37"/>
-      <c r="L69" s="170"/>
-      <c r="M69" s="146"/>
-      <c r="N69" s="146"/>
-      <c r="O69" s="146"/>
-      <c r="P69" s="146"/>
-      <c r="Q69" s="146"/>
-      <c r="R69" s="146"/>
-      <c r="S69" s="146"/>
+      <c r="L69" s="119"/>
+      <c r="M69" s="164"/>
+      <c r="N69" s="164"/>
+      <c r="O69" s="164"/>
+      <c r="P69" s="164"/>
+      <c r="Q69" s="164"/>
+      <c r="R69" s="164"/>
+      <c r="S69" s="164"/>
       <c r="T69" s="37"/>
-      <c r="U69" s="146"/>
-      <c r="V69" s="146"/>
-      <c r="W69" s="146"/>
-      <c r="X69" s="146"/>
-      <c r="Y69" s="146"/>
+      <c r="U69" s="164"/>
+      <c r="V69" s="164"/>
+      <c r="W69" s="164"/>
+      <c r="X69" s="164"/>
+      <c r="Y69" s="164"/>
       <c r="Z69" s="37"/>
       <c r="AA69" s="37"/>
       <c r="AB69" s="37"/>
@@ -7553,7 +7553,7 @@
       <c r="AI69" s="37"/>
       <c r="AJ69" s="37"/>
       <c r="AK69" s="37"/>
-      <c r="AL69" s="167"/>
+      <c r="AL69" s="116"/>
       <c r="AM69" s="37"/>
       <c r="AN69" s="37"/>
       <c r="AO69" s="37"/>
@@ -7572,57 +7572,57 @@
       <c r="BB69" s="59"/>
       <c r="BC69" s="59"/>
       <c r="BD69" s="59"/>
-      <c r="BE69" s="162"/>
-    </row>
-    <row r="70" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE69" s="111"/>
+    </row>
+    <row r="70" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="B70" s="164"/>
-      <c r="C70" s="155"/>
-      <c r="D70" s="155"/>
-      <c r="E70" s="155"/>
-      <c r="F70" s="155"/>
-      <c r="G70" s="155"/>
-      <c r="H70" s="155"/>
-      <c r="I70" s="155"/>
-      <c r="J70" s="155"/>
-      <c r="K70" s="155"/>
-      <c r="L70" s="155"/>
-      <c r="M70" s="155"/>
-      <c r="N70" s="155"/>
-      <c r="O70" s="155"/>
-      <c r="P70" s="155"/>
-      <c r="Q70" s="155"/>
-      <c r="R70" s="155"/>
-      <c r="S70" s="155"/>
-      <c r="T70" s="155"/>
-      <c r="U70" s="155"/>
-      <c r="V70" s="155"/>
-      <c r="W70" s="155"/>
-      <c r="X70" s="155"/>
-      <c r="Y70" s="155"/>
-      <c r="Z70" s="155"/>
-      <c r="AA70" s="155"/>
-      <c r="AB70" s="155"/>
-      <c r="AC70" s="155"/>
-      <c r="AD70" s="155"/>
-      <c r="AE70" s="155"/>
-      <c r="AF70" s="155"/>
-      <c r="AG70" s="155"/>
-      <c r="AH70" s="155"/>
-      <c r="AI70" s="155"/>
-      <c r="AJ70" s="155"/>
-      <c r="AK70" s="155"/>
-      <c r="AL70" s="155"/>
-      <c r="AM70" s="155"/>
-      <c r="AN70" s="155"/>
-      <c r="AO70" s="155"/>
-      <c r="AP70" s="155"/>
-      <c r="AQ70" s="155"/>
-      <c r="AR70" s="155"/>
-      <c r="AS70" s="155"/>
-      <c r="AT70" s="155"/>
+      <c r="B70" s="113"/>
+      <c r="C70" s="148"/>
+      <c r="D70" s="148"/>
+      <c r="E70" s="148"/>
+      <c r="F70" s="148"/>
+      <c r="G70" s="148"/>
+      <c r="H70" s="148"/>
+      <c r="I70" s="148"/>
+      <c r="J70" s="148"/>
+      <c r="K70" s="148"/>
+      <c r="L70" s="148"/>
+      <c r="M70" s="148"/>
+      <c r="N70" s="148"/>
+      <c r="O70" s="148"/>
+      <c r="P70" s="148"/>
+      <c r="Q70" s="148"/>
+      <c r="R70" s="148"/>
+      <c r="S70" s="148"/>
+      <c r="T70" s="148"/>
+      <c r="U70" s="148"/>
+      <c r="V70" s="148"/>
+      <c r="W70" s="148"/>
+      <c r="X70" s="148"/>
+      <c r="Y70" s="148"/>
+      <c r="Z70" s="148"/>
+      <c r="AA70" s="148"/>
+      <c r="AB70" s="148"/>
+      <c r="AC70" s="148"/>
+      <c r="AD70" s="148"/>
+      <c r="AE70" s="148"/>
+      <c r="AF70" s="148"/>
+      <c r="AG70" s="148"/>
+      <c r="AH70" s="148"/>
+      <c r="AI70" s="148"/>
+      <c r="AJ70" s="148"/>
+      <c r="AK70" s="148"/>
+      <c r="AL70" s="148"/>
+      <c r="AM70" s="148"/>
+      <c r="AN70" s="148"/>
+      <c r="AO70" s="148"/>
+      <c r="AP70" s="148"/>
+      <c r="AQ70" s="148"/>
+      <c r="AR70" s="148"/>
+      <c r="AS70" s="148"/>
+      <c r="AT70" s="148"/>
       <c r="AU70" s="59"/>
       <c r="AV70" s="59"/>
       <c r="AW70" s="59"/>
@@ -7633,9 +7633,9 @@
       <c r="BB70" s="59"/>
       <c r="BC70" s="59"/>
       <c r="BD70" s="59"/>
-      <c r="BE70" s="162"/>
-    </row>
-    <row r="71" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+      <c r="BE70" s="111"/>
+    </row>
+    <row r="71" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A71" s="78" t="s">
         <v>153</v>
       </c>
@@ -7648,7 +7648,7 @@
       <c r="AF71" s="93"/>
       <c r="BE71" s="94"/>
     </row>
-    <row r="72" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="72" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A72" s="78" t="s">
         <v>154</v>
       </c>
@@ -7661,7 +7661,7 @@
       <c r="AF72" s="93"/>
       <c r="BE72" s="94"/>
     </row>
-    <row r="73" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="73" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A73" s="78" t="s">
         <v>155</v>
       </c>
@@ -7674,7 +7674,7 @@
       <c r="AF73" s="93"/>
       <c r="BE73" s="94"/>
     </row>
-    <row r="74" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="74" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A74" s="78" t="s">
         <v>156</v>
       </c>
@@ -7687,7 +7687,7 @@
       <c r="AF74" s="93"/>
       <c r="BE74" s="94"/>
     </row>
-    <row r="75" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="75" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A75" s="78" t="s">
         <v>157</v>
       </c>
@@ -7700,7 +7700,7 @@
       <c r="AF75" s="93"/>
       <c r="BE75" s="94"/>
     </row>
-    <row r="76" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="76" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A76" s="78" t="s">
         <v>158</v>
       </c>
@@ -7713,7 +7713,7 @@
       <c r="AF76" s="93"/>
       <c r="BE76" s="94"/>
     </row>
-    <row r="77" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="77" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A77" s="78" t="s">
         <v>159</v>
       </c>
@@ -7726,7 +7726,7 @@
       <c r="AF77" s="93"/>
       <c r="BE77" s="94"/>
     </row>
-    <row r="78" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="78" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A78" s="78" t="s">
         <v>160</v>
       </c>
@@ -7739,7 +7739,7 @@
       <c r="AF78" s="93"/>
       <c r="BE78" s="94"/>
     </row>
-    <row r="79" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="79" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A79" s="78" t="s">
         <v>161</v>
       </c>
@@ -7752,7 +7752,7 @@
       <c r="AF79" s="93"/>
       <c r="BE79" s="94"/>
     </row>
-    <row r="80" spans="1:57" ht="24.9" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="80" spans="1:57" ht="24.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A80" s="86" t="s">
         <v>162</v>
       </c>
@@ -7765,7 +7765,7 @@
       <c r="AF80" s="93"/>
       <c r="BE80" s="94"/>
     </row>
-    <row r="81" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="81" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A81" s="78"/>
       <c r="B81" s="90"/>
       <c r="F81" s="91"/>
@@ -7776,7 +7776,7 @@
       <c r="AF81" s="93"/>
       <c r="BE81" s="94"/>
     </row>
-    <row r="82" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="82" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A82" s="78"/>
       <c r="B82" s="90"/>
       <c r="F82" s="91"/>
@@ -7787,7 +7787,7 @@
       <c r="AF82" s="93"/>
       <c r="BE82" s="94"/>
     </row>
-    <row r="83" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="83" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A83" s="78"/>
       <c r="B83" s="90"/>
       <c r="F83" s="91"/>
@@ -7798,7 +7798,7 @@
       <c r="AF83" s="93"/>
       <c r="BE83" s="94"/>
     </row>
-    <row r="84" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="84" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A84" s="78"/>
       <c r="B84" s="90"/>
       <c r="F84" s="91"/>
@@ -7809,7 +7809,7 @@
       <c r="AF84" s="93"/>
       <c r="BE84" s="94"/>
     </row>
-    <row r="85" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="85" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A85" s="78"/>
       <c r="B85" s="90"/>
       <c r="F85" s="91"/>
@@ -7820,7 +7820,7 @@
       <c r="AF85" s="93"/>
       <c r="BE85" s="94"/>
     </row>
-    <row r="86" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="86" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A86" s="78"/>
       <c r="B86" s="90"/>
       <c r="F86" s="91"/>
@@ -7831,7 +7831,7 @@
       <c r="AF86" s="93"/>
       <c r="BE86" s="94"/>
     </row>
-    <row r="87" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="87" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A87" s="78"/>
       <c r="B87" s="90"/>
       <c r="F87" s="91"/>
@@ -7842,7 +7842,7 @@
       <c r="AF87" s="93"/>
       <c r="BE87" s="94"/>
     </row>
-    <row r="88" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="88" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A88" s="78"/>
       <c r="B88" s="90"/>
       <c r="F88" s="91"/>
@@ -7853,7 +7853,7 @@
       <c r="AF88" s="93"/>
       <c r="BE88" s="94"/>
     </row>
-    <row r="89" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="89" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A89" s="78"/>
       <c r="B89" s="90"/>
       <c r="F89" s="91"/>
@@ -7864,7 +7864,7 @@
       <c r="AF89" s="93"/>
       <c r="BE89" s="94"/>
     </row>
-    <row r="90" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="90" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A90" s="78"/>
       <c r="B90" s="90"/>
       <c r="F90" s="91"/>
@@ -7875,7 +7875,7 @@
       <c r="AF90" s="93"/>
       <c r="BE90" s="94"/>
     </row>
-    <row r="91" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="91" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A91" s="78"/>
       <c r="B91" s="90"/>
       <c r="F91" s="91"/>
@@ -7886,7 +7886,7 @@
       <c r="AF91" s="93"/>
       <c r="BE91" s="94"/>
     </row>
-    <row r="92" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="92" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A92" s="78"/>
       <c r="B92" s="90"/>
       <c r="F92" s="91"/>
@@ -7897,7 +7897,7 @@
       <c r="AF92" s="93"/>
       <c r="BE92" s="94"/>
     </row>
-    <row r="93" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="93" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A93" s="78"/>
       <c r="B93" s="90"/>
       <c r="F93" s="91"/>
@@ -7908,7 +7908,7 @@
       <c r="AF93" s="93"/>
       <c r="BE93" s="94"/>
     </row>
-    <row r="94" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="94" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A94" s="78"/>
       <c r="B94" s="90"/>
       <c r="F94" s="91"/>
@@ -7919,7 +7919,7 @@
       <c r="AF94" s="93"/>
       <c r="BE94" s="94"/>
     </row>
-    <row r="95" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="95" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A95" s="78"/>
       <c r="B95" s="90"/>
       <c r="F95" s="91"/>
@@ -7930,7 +7930,7 @@
       <c r="AF95" s="93"/>
       <c r="BE95" s="94"/>
     </row>
-    <row r="96" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="96" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A96" s="78"/>
       <c r="B96" s="90"/>
       <c r="F96" s="91"/>
@@ -7941,7 +7941,7 @@
       <c r="AF96" s="93"/>
       <c r="BE96" s="94"/>
     </row>
-    <row r="97" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="97" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A97" s="78"/>
       <c r="B97" s="90"/>
       <c r="F97" s="91"/>
@@ -7952,7 +7952,7 @@
       <c r="AF97" s="93"/>
       <c r="BE97" s="94"/>
     </row>
-    <row r="98" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="98" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A98" s="78"/>
       <c r="B98" s="90"/>
       <c r="F98" s="91"/>
@@ -7963,7 +7963,7 @@
       <c r="AF98" s="93"/>
       <c r="BE98" s="94"/>
     </row>
-    <row r="99" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="99" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A99" s="78"/>
       <c r="B99" s="90"/>
       <c r="F99" s="91"/>
@@ -7974,7 +7974,7 @@
       <c r="AF99" s="93"/>
       <c r="BE99" s="94"/>
     </row>
-    <row r="100" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="100" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A100" s="78"/>
       <c r="B100" s="90"/>
       <c r="F100" s="91"/>
@@ -7985,7 +7985,7 @@
       <c r="AF100" s="93"/>
       <c r="BE100" s="94"/>
     </row>
-    <row r="101" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="101" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A101" s="78"/>
       <c r="B101" s="90"/>
       <c r="F101" s="91"/>
@@ -7996,7 +7996,7 @@
       <c r="AF101" s="93"/>
       <c r="BE101" s="94"/>
     </row>
-    <row r="102" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="102" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A102" s="78"/>
       <c r="B102" s="90"/>
       <c r="F102" s="91"/>
@@ -8007,7 +8007,7 @@
       <c r="AF102" s="93"/>
       <c r="BE102" s="94"/>
     </row>
-    <row r="103" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="103" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A103" s="78"/>
       <c r="B103" s="90"/>
       <c r="F103" s="91"/>
@@ -8018,7 +8018,7 @@
       <c r="AF103" s="93"/>
       <c r="BE103" s="94"/>
     </row>
-    <row r="104" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="104" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A104" s="78"/>
       <c r="B104" s="90"/>
       <c r="F104" s="91"/>
@@ -8029,7 +8029,7 @@
       <c r="AF104" s="93"/>
       <c r="BE104" s="94"/>
     </row>
-    <row r="105" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="105" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A105" s="78"/>
       <c r="B105" s="90"/>
       <c r="F105" s="91"/>
@@ -8040,7 +8040,7 @@
       <c r="AF105" s="93"/>
       <c r="BE105" s="94"/>
     </row>
-    <row r="106" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="106" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A106" s="78"/>
       <c r="B106" s="90"/>
       <c r="F106" s="91"/>
@@ -8051,7 +8051,7 @@
       <c r="AF106" s="93"/>
       <c r="BE106" s="94"/>
     </row>
-    <row r="107" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="107" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A107" s="78"/>
       <c r="B107" s="90"/>
       <c r="F107" s="91"/>
@@ -8062,7 +8062,7 @@
       <c r="AF107" s="93"/>
       <c r="BE107" s="94"/>
     </row>
-    <row r="108" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="108" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A108" s="78"/>
       <c r="B108" s="90"/>
       <c r="F108" s="91"/>
@@ -8073,7 +8073,7 @@
       <c r="AF108" s="93"/>
       <c r="BE108" s="94"/>
     </row>
-    <row r="109" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="109" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A109" s="78"/>
       <c r="B109" s="90"/>
       <c r="F109" s="91"/>
@@ -8084,7 +8084,7 @@
       <c r="AF109" s="93"/>
       <c r="BE109" s="94"/>
     </row>
-    <row r="110" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="110" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A110" s="78"/>
       <c r="B110" s="90"/>
       <c r="F110" s="91"/>
@@ -8095,7 +8095,7 @@
       <c r="AF110" s="93"/>
       <c r="BE110" s="94"/>
     </row>
-    <row r="111" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="111" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A111" s="78"/>
       <c r="B111" s="90"/>
       <c r="F111" s="91"/>
@@ -8106,7 +8106,7 @@
       <c r="AF111" s="93"/>
       <c r="BE111" s="94"/>
     </row>
-    <row r="112" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="112" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A112" s="78"/>
       <c r="B112" s="90"/>
       <c r="F112" s="91"/>
@@ -8117,7 +8117,7 @@
       <c r="AF112" s="93"/>
       <c r="BE112" s="94"/>
     </row>
-    <row r="113" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="113" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A113" s="78"/>
       <c r="B113" s="90"/>
       <c r="F113" s="91"/>
@@ -8128,7 +8128,7 @@
       <c r="AF113" s="93"/>
       <c r="BE113" s="94"/>
     </row>
-    <row r="114" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="114" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A114" s="78"/>
       <c r="B114" s="90"/>
       <c r="F114" s="91"/>
@@ -8139,7 +8139,7 @@
       <c r="AF114" s="93"/>
       <c r="BE114" s="94"/>
     </row>
-    <row r="115" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="115" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A115" s="78"/>
       <c r="B115" s="90"/>
       <c r="F115" s="91"/>
@@ -8150,7 +8150,7 @@
       <c r="AF115" s="93"/>
       <c r="BE115" s="94"/>
     </row>
-    <row r="116" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="116" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A116" s="78"/>
       <c r="B116" s="90"/>
       <c r="F116" s="91"/>
@@ -8161,7 +8161,7 @@
       <c r="AF116" s="93"/>
       <c r="BE116" s="94"/>
     </row>
-    <row r="117" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="117" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A117" s="78"/>
       <c r="B117" s="90"/>
       <c r="F117" s="91"/>
@@ -8172,7 +8172,7 @@
       <c r="AF117" s="93"/>
       <c r="BE117" s="94"/>
     </row>
-    <row r="118" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="118" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A118" s="78"/>
       <c r="B118" s="90"/>
       <c r="F118" s="91"/>
@@ -8183,7 +8183,7 @@
       <c r="AF118" s="93"/>
       <c r="BE118" s="94"/>
     </row>
-    <row r="119" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="119" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A119" s="78"/>
       <c r="B119" s="90"/>
       <c r="F119" s="91"/>
@@ -8194,7 +8194,7 @@
       <c r="AF119" s="93"/>
       <c r="BE119" s="94"/>
     </row>
-    <row r="120" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="120" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A120" s="78"/>
       <c r="B120" s="90"/>
       <c r="F120" s="91"/>
@@ -8205,7 +8205,7 @@
       <c r="AF120" s="93"/>
       <c r="BE120" s="94"/>
     </row>
-    <row r="121" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="121" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A121" s="78"/>
       <c r="B121" s="90"/>
       <c r="F121" s="91"/>
@@ -8216,7 +8216,7 @@
       <c r="AF121" s="93"/>
       <c r="BE121" s="94"/>
     </row>
-    <row r="122" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="122" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A122" s="78"/>
       <c r="B122" s="90"/>
       <c r="F122" s="91"/>
@@ -8227,7 +8227,7 @@
       <c r="AF122" s="93"/>
       <c r="BE122" s="94"/>
     </row>
-    <row r="123" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="123" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A123" s="78"/>
       <c r="B123" s="90"/>
       <c r="F123" s="91"/>
@@ -8238,7 +8238,7 @@
       <c r="AF123" s="93"/>
       <c r="BE123" s="94"/>
     </row>
-    <row r="124" spans="1:57" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:57" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="90"/>
       <c r="AO124" s="93"/>
       <c r="AP124" s="93"/>
@@ -8258,7 +8258,7 @@
       <c r="BD124" s="93"/>
       <c r="BE124" s="94"/>
     </row>
-    <row r="125" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="95"/>
       <c r="C125" s="93"/>
       <c r="D125" s="93"/>
@@ -8316,7 +8316,7 @@
       <c r="BD125" s="93"/>
       <c r="BE125" s="94"/>
     </row>
-    <row r="126" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="95"/>
       <c r="C126" s="93"/>
       <c r="D126" s="93"/>
@@ -8374,7 +8374,7 @@
       <c r="BD126" s="93"/>
       <c r="BE126" s="94"/>
     </row>
-    <row r="127" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="95"/>
       <c r="C127" s="93"/>
       <c r="D127" s="93"/>
@@ -8432,7 +8432,7 @@
       <c r="BD127" s="93"/>
       <c r="BE127" s="94"/>
     </row>
-    <row r="128" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="95"/>
       <c r="C128" s="93"/>
       <c r="D128" s="93"/>
@@ -8490,7 +8490,7 @@
       <c r="BD128" s="93"/>
       <c r="BE128" s="94"/>
     </row>
-    <row r="129" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="95"/>
       <c r="C129" s="93"/>
       <c r="D129" s="93"/>
@@ -8548,7 +8548,7 @@
       <c r="BD129" s="93"/>
       <c r="BE129" s="94"/>
     </row>
-    <row r="130" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="95"/>
       <c r="C130" s="93"/>
       <c r="D130" s="93"/>
@@ -8606,7 +8606,7 @@
       <c r="BD130" s="93"/>
       <c r="BE130" s="94"/>
     </row>
-    <row r="131" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="95"/>
       <c r="C131" s="93"/>
       <c r="D131" s="93"/>
@@ -8664,7 +8664,7 @@
       <c r="BD131" s="93"/>
       <c r="BE131" s="94"/>
     </row>
-    <row r="132" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="95"/>
       <c r="C132" s="93"/>
       <c r="D132" s="93"/>
@@ -8722,7 +8722,7 @@
       <c r="BD132" s="93"/>
       <c r="BE132" s="94"/>
     </row>
-    <row r="133" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="95"/>
       <c r="C133" s="93"/>
       <c r="D133" s="93"/>
@@ -8780,7 +8780,7 @@
       <c r="BD133" s="93"/>
       <c r="BE133" s="94"/>
     </row>
-    <row r="134" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="95"/>
       <c r="C134" s="93"/>
       <c r="D134" s="93"/>
@@ -8838,7 +8838,7 @@
       <c r="BD134" s="93"/>
       <c r="BE134" s="94"/>
     </row>
-    <row r="135" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="95"/>
       <c r="C135" s="93"/>
       <c r="D135" s="93"/>
@@ -8896,7 +8896,7 @@
       <c r="BD135" s="93"/>
       <c r="BE135" s="94"/>
     </row>
-    <row r="136" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="95"/>
       <c r="C136" s="93"/>
       <c r="D136" s="93"/>
@@ -8954,7 +8954,7 @@
       <c r="BD136" s="93"/>
       <c r="BE136" s="94"/>
     </row>
-    <row r="137" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="95"/>
       <c r="C137" s="93"/>
       <c r="D137" s="93"/>
@@ -9012,7 +9012,7 @@
       <c r="BD137" s="93"/>
       <c r="BE137" s="94"/>
     </row>
-    <row r="138" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="95"/>
       <c r="C138" s="93"/>
       <c r="D138" s="93"/>
@@ -9070,7 +9070,7 @@
       <c r="BD138" s="93"/>
       <c r="BE138" s="94"/>
     </row>
-    <row r="139" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="95"/>
       <c r="C139" s="93"/>
       <c r="D139" s="93"/>
@@ -9128,7 +9128,7 @@
       <c r="BD139" s="93"/>
       <c r="BE139" s="94"/>
     </row>
-    <row r="140" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="95"/>
       <c r="C140" s="93"/>
       <c r="D140" s="93"/>
@@ -9186,7 +9186,7 @@
       <c r="BD140" s="93"/>
       <c r="BE140" s="94"/>
     </row>
-    <row r="141" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="95"/>
       <c r="C141" s="93"/>
       <c r="D141" s="93"/>
@@ -9244,7 +9244,7 @@
       <c r="BD141" s="93"/>
       <c r="BE141" s="94"/>
     </row>
-    <row r="142" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="95"/>
       <c r="C142" s="93"/>
       <c r="D142" s="93"/>
@@ -9302,7 +9302,7 @@
       <c r="BD142" s="93"/>
       <c r="BE142" s="94"/>
     </row>
-    <row r="143" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="95"/>
       <c r="C143" s="93"/>
       <c r="D143" s="93"/>
@@ -9360,7 +9360,7 @@
       <c r="BD143" s="93"/>
       <c r="BE143" s="94"/>
     </row>
-    <row r="144" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="95"/>
       <c r="C144" s="93"/>
       <c r="D144" s="93"/>
@@ -9418,7 +9418,7 @@
       <c r="BD144" s="93"/>
       <c r="BE144" s="94"/>
     </row>
-    <row r="145" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="95"/>
       <c r="C145" s="93"/>
       <c r="D145" s="93"/>
@@ -9476,17 +9476,98 @@
       <c r="BD145" s="93"/>
       <c r="BE145" s="94"/>
     </row>
-    <row r="146" spans="1:57" s="54" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:57" s="54" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B146" s="96"/>
       <c r="BE146" s="97"/>
     </row>
-    <row r="147" spans="1:57" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:57" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="48" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="M5:AK7"/>
+    <mergeCell ref="C2:K6"/>
+    <mergeCell ref="H13:J14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="U11:Y13"/>
+    <mergeCell ref="AG11:AK13"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="AA11:AE13"/>
+    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="AA14:AE14"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="M11:S13"/>
+    <mergeCell ref="AN25:AS27"/>
+    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="P25:P28"/>
+    <mergeCell ref="AA23:AE23"/>
+    <mergeCell ref="AG21:AK21"/>
+    <mergeCell ref="AB20:AB22"/>
+    <mergeCell ref="P17:P20"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="U15:U28"/>
+    <mergeCell ref="Y15:Y28"/>
+    <mergeCell ref="AP29:AR29"/>
+    <mergeCell ref="P29:P32"/>
+    <mergeCell ref="AN29:AN34"/>
+    <mergeCell ref="AB17:AB19"/>
+    <mergeCell ref="AA15:AA22"/>
+    <mergeCell ref="AN11:AS13"/>
+    <mergeCell ref="AO17:AO20"/>
+    <mergeCell ref="AN21:AS21"/>
+    <mergeCell ref="AP15:AR15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AH17:AH20"/>
+    <mergeCell ref="AE15:AE22"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="U69:Y69"/>
+    <mergeCell ref="U53:U66"/>
+    <mergeCell ref="P37:P40"/>
+    <mergeCell ref="S15:S40"/>
+    <mergeCell ref="M41:S41"/>
+    <mergeCell ref="P33:P36"/>
+    <mergeCell ref="V17:V20"/>
+    <mergeCell ref="V21:V24"/>
+    <mergeCell ref="Y53:Y66"/>
+    <mergeCell ref="P63:P66"/>
+    <mergeCell ref="V63:V66"/>
+    <mergeCell ref="M69:S69"/>
+    <mergeCell ref="U49:Y51"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="V55:V58"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="M15:M40"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="P55:P58"/>
+    <mergeCell ref="P59:P62"/>
+    <mergeCell ref="M49:S51"/>
+    <mergeCell ref="M44:AK46"/>
+    <mergeCell ref="V59:V62"/>
+    <mergeCell ref="AA49:AE51"/>
+    <mergeCell ref="AC53:AD53"/>
+    <mergeCell ref="M52:S52"/>
+    <mergeCell ref="AB59:AB62"/>
+    <mergeCell ref="AA52:AE52"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AM5:AT7"/>
+    <mergeCell ref="U29:Y29"/>
+    <mergeCell ref="C70:AT70"/>
+    <mergeCell ref="C1:AT1"/>
+    <mergeCell ref="AS29:AS34"/>
+    <mergeCell ref="AO31:AO34"/>
+    <mergeCell ref="AN35:AS35"/>
+    <mergeCell ref="AN28:AS28"/>
+    <mergeCell ref="AB55:AB58"/>
+    <mergeCell ref="AN14:AS14"/>
+    <mergeCell ref="AK15:AK20"/>
+    <mergeCell ref="AG15:AG20"/>
+    <mergeCell ref="AS15:AS20"/>
+    <mergeCell ref="AN15:AN20"/>
+    <mergeCell ref="V25:V28"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="C8:K8"/>
@@ -9503,87 +9584,6 @@
     <mergeCell ref="M53:M66"/>
     <mergeCell ref="AG49:AK51"/>
     <mergeCell ref="AG52:AK52"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AM5:AT7"/>
-    <mergeCell ref="U29:Y29"/>
-    <mergeCell ref="C70:AT70"/>
-    <mergeCell ref="C1:AT1"/>
-    <mergeCell ref="AS29:AS34"/>
-    <mergeCell ref="AO31:AO34"/>
-    <mergeCell ref="AN35:AS35"/>
-    <mergeCell ref="AN28:AS28"/>
-    <mergeCell ref="AB55:AB58"/>
-    <mergeCell ref="AN14:AS14"/>
-    <mergeCell ref="AK15:AK20"/>
-    <mergeCell ref="AG15:AG20"/>
-    <mergeCell ref="AS15:AS20"/>
-    <mergeCell ref="AN15:AN20"/>
-    <mergeCell ref="V25:V28"/>
-    <mergeCell ref="M15:M40"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="P55:P58"/>
-    <mergeCell ref="P59:P62"/>
-    <mergeCell ref="M49:S51"/>
-    <mergeCell ref="M44:AK46"/>
-    <mergeCell ref="V59:V62"/>
-    <mergeCell ref="AA49:AE51"/>
-    <mergeCell ref="AC53:AD53"/>
-    <mergeCell ref="M52:S52"/>
-    <mergeCell ref="AB59:AB62"/>
-    <mergeCell ref="AA52:AE52"/>
-    <mergeCell ref="U69:Y69"/>
-    <mergeCell ref="U53:U66"/>
-    <mergeCell ref="P37:P40"/>
-    <mergeCell ref="S15:S40"/>
-    <mergeCell ref="M41:S41"/>
-    <mergeCell ref="P33:P36"/>
-    <mergeCell ref="V17:V20"/>
-    <mergeCell ref="V21:V24"/>
-    <mergeCell ref="Y53:Y66"/>
-    <mergeCell ref="P63:P66"/>
-    <mergeCell ref="V63:V66"/>
-    <mergeCell ref="M69:S69"/>
-    <mergeCell ref="U49:Y51"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="V55:V58"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="AN11:AS13"/>
-    <mergeCell ref="AO17:AO20"/>
-    <mergeCell ref="AN21:AS21"/>
-    <mergeCell ref="AP15:AR15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AH17:AH20"/>
-    <mergeCell ref="AE15:AE22"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AN25:AS27"/>
-    <mergeCell ref="U52:Y52"/>
-    <mergeCell ref="P25:P28"/>
-    <mergeCell ref="AA23:AE23"/>
-    <mergeCell ref="AG21:AK21"/>
-    <mergeCell ref="AB20:AB22"/>
-    <mergeCell ref="P17:P20"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="U15:U28"/>
-    <mergeCell ref="Y15:Y28"/>
-    <mergeCell ref="AP29:AR29"/>
-    <mergeCell ref="P29:P32"/>
-    <mergeCell ref="AN29:AN34"/>
-    <mergeCell ref="AB17:AB19"/>
-    <mergeCell ref="AA15:AA22"/>
-    <mergeCell ref="M5:AK7"/>
-    <mergeCell ref="C2:K6"/>
-    <mergeCell ref="H13:J14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="U11:Y13"/>
-    <mergeCell ref="AG11:AK13"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="AA11:AE13"/>
-    <mergeCell ref="AG14:AK14"/>
-    <mergeCell ref="AA14:AE14"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="M11:S13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Q55">
